--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1801701.333009647</v>
+        <v>-1803568.989961609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4788661.747287667</v>
+        <v>4788661.747287663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.4144465799816</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>298.9534966875086</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>340.5566506582124</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>346.2457498291944</v>
       </c>
       <c r="H11" t="n">
-        <v>212.0453187292621</v>
+        <v>245.1190367925126</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>38.61545568127509</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>144.792642863444</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>184.8072504161422</v>
       </c>
       <c r="V11" t="n">
         <v>261.4328633866359</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>282.921573633914</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>212.361217078117</v>
       </c>
       <c r="Y11" t="n">
-        <v>319.9185435725546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.0191891767116</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>106.3891039048168</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>114.7775421003478</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1464,10 @@
         <v>135.8787759891778</v>
       </c>
       <c r="H12" t="n">
-        <v>31.76973307747004</v>
+        <v>31.76973307747001</v>
       </c>
       <c r="I12" t="n">
-        <v>38.96585120160105</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S12" t="n">
         <v>144.4762462265178</v>
@@ -1528,25 +1528,25 @@
         <v>113.5125850984383</v>
       </c>
       <c r="C13" t="n">
-        <v>100.9274260151289</v>
+        <v>100.9274260151288</v>
       </c>
       <c r="D13" t="n">
-        <v>82.29607793471338</v>
+        <v>82.29607793471335</v>
       </c>
       <c r="E13" t="n">
-        <v>80.1145675630702</v>
+        <v>80.11456756307017</v>
       </c>
       <c r="F13" t="n">
-        <v>79.10165293943227</v>
+        <v>79.10165293943224</v>
       </c>
       <c r="G13" t="n">
         <v>100.4435944784957</v>
       </c>
       <c r="H13" t="n">
-        <v>84.98983177901438</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.20207760100273</v>
+        <v>52.20207760100271</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.75910962720317</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>136.2966898641854</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>156.3793288507996</v>
+        <v>156.3793288507995</v>
       </c>
       <c r="U13" t="n">
         <v>219.9326530113666</v>
       </c>
       <c r="V13" t="n">
-        <v>11.47574012745444</v>
+        <v>129.1311110923191</v>
       </c>
       <c r="W13" t="n">
         <v>220.203603253092</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>159.3902603055382</v>
       </c>
       <c r="Y13" t="n">
         <v>152.2652582685958</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>298.9534966875086</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>288.363646537184</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>315.6109749887628</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>340.5566506582124</v>
       </c>
       <c r="G14" t="n">
         <v>346.2457498291944</v>
       </c>
       <c r="H14" t="n">
-        <v>245.1190367925126</v>
+        <v>58.24494978441879</v>
       </c>
       <c r="I14" t="n">
-        <v>38.61545568127507</v>
+        <v>38.61545568127508</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.31778307460719</v>
+        <v>80.31778307460715</v>
       </c>
       <c r="T14" t="n">
-        <v>144.792642863444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>184.8072504161422</v>
       </c>
       <c r="V14" t="n">
         <v>261.4328633866359</v>
       </c>
       <c r="W14" t="n">
-        <v>209.2201451845928</v>
+        <v>282.921573633914</v>
       </c>
       <c r="X14" t="n">
         <v>303.41170559497</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>319.9185435725546</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>135.8787759891778</v>
@@ -1704,7 +1704,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I15" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160132</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S15" t="n">
         <v>144.4762462265178</v>
@@ -1765,25 +1765,25 @@
         <v>113.5125850984383</v>
       </c>
       <c r="C16" t="n">
-        <v>100.9274260151289</v>
+        <v>100.9274260151288</v>
       </c>
       <c r="D16" t="n">
-        <v>82.29607793471338</v>
+        <v>82.29607793471335</v>
       </c>
       <c r="E16" t="n">
-        <v>80.1145675630702</v>
+        <v>80.11456756307017</v>
       </c>
       <c r="F16" t="n">
-        <v>79.10165293943227</v>
+        <v>79.10165293943224</v>
       </c>
       <c r="G16" t="n">
         <v>100.4435944784957</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98983177901438</v>
+        <v>84.98983177901435</v>
       </c>
       <c r="I16" t="n">
-        <v>52.20207760100273</v>
+        <v>52.20207760100271</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.75910962720317</v>
+        <v>14.70235992377588</v>
       </c>
       <c r="S16" t="n">
-        <v>136.2966898641854</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>201.9694737492914</v>
+        <v>219.9326530113666</v>
       </c>
       <c r="V16" t="n">
         <v>185.818248240329</v>
@@ -1828,7 +1828,7 @@
         <v>220.203603253092</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>159.3902603055382</v>
       </c>
       <c r="Y16" t="n">
         <v>152.2652582685958</v>
@@ -1844,7 +1844,7 @@
         <v>236.0966635053744</v>
       </c>
       <c r="C17" t="n">
-        <v>218.6357136129014</v>
+        <v>146.3018126624647</v>
       </c>
       <c r="D17" t="n">
         <v>208.0458634625768</v>
@@ -1910,7 +1910,7 @@
         <v>223.0939225203628</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.2668595475119</v>
+        <v>239.6007604979474</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I18" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S18" t="n">
         <v>144.4762462265178</v>
@@ -2017,13 +2017,13 @@
         <v>20.12581140388847</v>
       </c>
       <c r="H19" t="n">
-        <v>4.672048704407155</v>
+        <v>4.672048704407159</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.540301506661336</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.6160849476844</v>
+        <v>146.3756232169276</v>
       </c>
       <c r="T19" t="n">
-        <v>222.6987239342986</v>
+        <v>76.06154577619236</v>
       </c>
       <c r="U19" t="n">
-        <v>223.4712848574476</v>
+        <v>286.2520480948656</v>
       </c>
       <c r="V19" t="n">
         <v>105.5004651657218</v>
       </c>
       <c r="W19" t="n">
-        <v>139.8858201784848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>79.07247723093096</v>
@@ -2084,7 +2084,7 @@
         <v>218.6357136129014</v>
       </c>
       <c r="D20" t="n">
-        <v>208.0458634625768</v>
+        <v>135.711962512141</v>
       </c>
       <c r="E20" t="n">
         <v>235.2931919141556</v>
@@ -2135,7 +2135,7 @@
         <v>64.47485978883682</v>
       </c>
       <c r="U20" t="n">
-        <v>32.15556639109941</v>
+        <v>104.489467341535</v>
       </c>
       <c r="V20" t="n">
         <v>181.1150803120287</v>
@@ -2178,7 +2178,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I21" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S21" t="n">
         <v>144.4762462265178</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>20.12581140388847</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.540301506661336</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>55.97890678957818</v>
       </c>
       <c r="T22" t="n">
-        <v>76.06154577619235</v>
+        <v>167.6743923387166</v>
       </c>
       <c r="U22" t="n">
         <v>139.6148699367594</v>
       </c>
       <c r="V22" t="n">
-        <v>189.3568800864099</v>
+        <v>105.5004651657218</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>139.8858201784848</v>
       </c>
       <c r="X22" t="n">
         <v>79.07247723093096</v>
@@ -2415,7 +2415,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I24" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S24" t="n">
         <v>144.4762462265178</v>
@@ -2485,19 +2485,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.85641492068828</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7629895619947</v>
+        <v>20.12581140388847</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3092268625134</v>
+        <v>4.672048704407159</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.540301506661336</v>
+        <v>6.540301506661365</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>55.97890678957818</v>
       </c>
       <c r="T25" t="n">
-        <v>76.06154577619235</v>
+        <v>222.6987239342986</v>
       </c>
       <c r="U25" t="n">
-        <v>139.6148699367594</v>
+        <v>286.2520480948656</v>
       </c>
       <c r="V25" t="n">
         <v>105.5004651657218</v>
@@ -2539,7 +2539,7 @@
         <v>139.8858201784848</v>
       </c>
       <c r="X25" t="n">
-        <v>79.07247723093096</v>
+        <v>162.9288921516188</v>
       </c>
       <c r="Y25" t="n">
         <v>71.94747519398859</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4160585888733</v>
+        <v>302.4160585888734</v>
       </c>
       <c r="C26" t="n">
         <v>284.9551086964003</v>
       </c>
       <c r="D26" t="n">
-        <v>274.3652585460757</v>
+        <v>274.3652585460758</v>
       </c>
       <c r="E26" t="n">
-        <v>301.6125869976545</v>
+        <v>301.6125869976546</v>
       </c>
       <c r="F26" t="n">
-        <v>326.5582626671042</v>
+        <v>326.5582626671043</v>
       </c>
       <c r="G26" t="n">
         <v>332.2473618380862</v>
       </c>
       <c r="H26" t="n">
-        <v>231.1206488014043</v>
+        <v>231.1206488014044</v>
       </c>
       <c r="I26" t="n">
-        <v>24.61706769016683</v>
+        <v>24.61706769016688</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.31939508349895</v>
+        <v>66.31939508349896</v>
       </c>
       <c r="T26" t="n">
         <v>130.7942548723358</v>
@@ -2618,7 +2618,7 @@
         <v>268.9231856428058</v>
       </c>
       <c r="X26" t="n">
-        <v>289.4133176038618</v>
+        <v>289.4133176038619</v>
       </c>
       <c r="Y26" t="n">
         <v>305.9201555814464</v>
@@ -2652,7 +2652,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I27" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S27" t="n">
         <v>144.4762462265178</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.51419710733008</v>
+        <v>99.51419710733009</v>
       </c>
       <c r="C28" t="n">
-        <v>86.92903802402061</v>
+        <v>86.92903802402063</v>
       </c>
       <c r="D28" t="n">
-        <v>68.29768994360514</v>
+        <v>68.29768994360515</v>
       </c>
       <c r="E28" t="n">
-        <v>66.11617957196195</v>
+        <v>66.11617957196196</v>
       </c>
       <c r="F28" t="n">
-        <v>65.10326494832402</v>
+        <v>65.10326494832404</v>
       </c>
       <c r="G28" t="n">
-        <v>86.44520648738744</v>
+        <v>86.44520648738745</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99144378790614</v>
+        <v>70.99144378790615</v>
       </c>
       <c r="I28" t="n">
-        <v>38.20368960989448</v>
+        <v>38.20368960989451</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76072163609493</v>
+        <v>41.76072163609496</v>
       </c>
       <c r="S28" t="n">
-        <v>122.2983018730771</v>
+        <v>122.2983018730772</v>
       </c>
       <c r="T28" t="n">
         <v>142.3809408596913</v>
@@ -2810,7 +2810,7 @@
         <v>231.1206488014043</v>
       </c>
       <c r="I29" t="n">
-        <v>24.61706769016683</v>
+        <v>24.61706769016685</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.31939508349895</v>
+        <v>66.31939508349893</v>
       </c>
       <c r="T29" t="n">
         <v>130.7942548723358</v>
       </c>
       <c r="U29" t="n">
-        <v>170.808862425034</v>
+        <v>170.8088624250339</v>
       </c>
       <c r="V29" t="n">
         <v>247.4344753955277</v>
@@ -2889,7 +2889,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I30" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S30" t="n">
         <v>144.4762462265178</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.51419710733008</v>
+        <v>99.51419710733006</v>
       </c>
       <c r="C31" t="n">
-        <v>86.92903802402061</v>
+        <v>86.9290380240206</v>
       </c>
       <c r="D31" t="n">
-        <v>68.29768994360514</v>
+        <v>68.29768994360512</v>
       </c>
       <c r="E31" t="n">
-        <v>66.11617957196195</v>
+        <v>66.11617957196194</v>
       </c>
       <c r="F31" t="n">
-        <v>65.10326494832402</v>
+        <v>65.10326494832401</v>
       </c>
       <c r="G31" t="n">
-        <v>86.44520648738744</v>
+        <v>86.44520648738742</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99144378790614</v>
+        <v>70.99144378790612</v>
       </c>
       <c r="I31" t="n">
         <v>38.20368960989448</v>
@@ -2998,7 +2998,7 @@
         <v>41.76072163609493</v>
       </c>
       <c r="S31" t="n">
-        <v>122.2983018730771</v>
+        <v>122.2983018730772</v>
       </c>
       <c r="T31" t="n">
         <v>142.3809408596913</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.4160585888734</v>
+        <v>302.4160585888733</v>
       </c>
       <c r="C32" t="n">
         <v>284.9551086964003</v>
       </c>
       <c r="D32" t="n">
-        <v>274.3652585460758</v>
+        <v>274.3652585460757</v>
       </c>
       <c r="E32" t="n">
-        <v>301.6125869976546</v>
+        <v>301.6125869976545</v>
       </c>
       <c r="F32" t="n">
-        <v>326.5582626671043</v>
+        <v>326.5582626671042</v>
       </c>
       <c r="G32" t="n">
         <v>332.2473618380862</v>
       </c>
       <c r="H32" t="n">
-        <v>231.1206488014044</v>
+        <v>231.1206488014043</v>
       </c>
       <c r="I32" t="n">
-        <v>24.61706769016685</v>
+        <v>24.61706769016686</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349895</v>
       </c>
       <c r="T32" t="n">
         <v>130.7942548723358</v>
@@ -3092,7 +3092,7 @@
         <v>268.9231856428058</v>
       </c>
       <c r="X32" t="n">
-        <v>289.4133176038619</v>
+        <v>289.4133176038618</v>
       </c>
       <c r="Y32" t="n">
         <v>305.9201555814464</v>
@@ -3126,7 +3126,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I33" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S33" t="n">
         <v>144.4762462265178</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.51419710733009</v>
+        <v>99.51419710733008</v>
       </c>
       <c r="C34" t="n">
-        <v>86.92903802402063</v>
+        <v>86.92903802402061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.29768994360515</v>
+        <v>68.29768994360514</v>
       </c>
       <c r="E34" t="n">
-        <v>66.11617957196196</v>
+        <v>66.11617957196195</v>
       </c>
       <c r="F34" t="n">
-        <v>65.10326494832404</v>
+        <v>65.10326494832402</v>
       </c>
       <c r="G34" t="n">
-        <v>86.44520648738745</v>
+        <v>86.44520648738744</v>
       </c>
       <c r="H34" t="n">
-        <v>70.99144378790615</v>
+        <v>70.99144378790614</v>
       </c>
       <c r="I34" t="n">
         <v>38.2036896098945</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.4160585888734</v>
+        <v>302.4160585888733</v>
       </c>
       <c r="C35" t="n">
         <v>284.9551086964003</v>
       </c>
       <c r="D35" t="n">
-        <v>274.3652585460758</v>
+        <v>274.3652585460757</v>
       </c>
       <c r="E35" t="n">
-        <v>301.6125869976546</v>
+        <v>301.6125869976545</v>
       </c>
       <c r="F35" t="n">
-        <v>326.5582626671043</v>
+        <v>326.5582626671042</v>
       </c>
       <c r="G35" t="n">
         <v>332.2473618380862</v>
       </c>
       <c r="H35" t="n">
-        <v>231.1206488014044</v>
+        <v>231.1206488014043</v>
       </c>
       <c r="I35" t="n">
-        <v>24.61706769016685</v>
+        <v>24.61706769016686</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>268.9231856428058</v>
       </c>
       <c r="X35" t="n">
-        <v>289.4133176038619</v>
+        <v>289.4133176038618</v>
       </c>
       <c r="Y35" t="n">
         <v>305.9201555814464</v>
@@ -3363,7 +3363,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I36" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S36" t="n">
         <v>144.4762462265178</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.51419710733009</v>
+        <v>99.51419710733008</v>
       </c>
       <c r="C37" t="n">
-        <v>86.92903802402063</v>
+        <v>86.92903802402061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.29768994360515</v>
+        <v>68.29768994360514</v>
       </c>
       <c r="E37" t="n">
-        <v>66.11617957196196</v>
+        <v>66.11617957196195</v>
       </c>
       <c r="F37" t="n">
-        <v>65.10326494832404</v>
+        <v>65.10326494832402</v>
       </c>
       <c r="G37" t="n">
         <v>86.44520648738745</v>
       </c>
       <c r="H37" t="n">
-        <v>70.99144378790615</v>
+        <v>70.99144378790614</v>
       </c>
       <c r="I37" t="n">
         <v>38.2036896098945</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.31939508349896</v>
+        <v>66.31939508349895</v>
       </c>
       <c r="T38" t="n">
         <v>130.7942548723358</v>
@@ -3758,7 +3758,7 @@
         <v>231.1206488014044</v>
       </c>
       <c r="I41" t="n">
-        <v>24.61706769016685</v>
+        <v>24.61706769016688</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.31939508349895</v>
+        <v>66.31939508349896</v>
       </c>
       <c r="T41" t="n">
         <v>130.7942548723358</v>
@@ -3837,7 +3837,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I42" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S42" t="n">
         <v>144.4762462265178</v>
@@ -3910,13 +3910,13 @@
         <v>65.10326494832404</v>
       </c>
       <c r="G43" t="n">
-        <v>86.44520648738745</v>
+        <v>86.44520648738747</v>
       </c>
       <c r="H43" t="n">
         <v>70.99144378790615</v>
       </c>
       <c r="I43" t="n">
-        <v>38.2036896098945</v>
+        <v>38.20368960989451</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76072163609494</v>
+        <v>41.76072163609496</v>
       </c>
       <c r="S43" t="n">
         <v>122.2983018730772</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.4160585888734</v>
+        <v>302.4160585888733</v>
       </c>
       <c r="C44" t="n">
         <v>284.9551086964003</v>
       </c>
       <c r="D44" t="n">
-        <v>274.3652585460758</v>
+        <v>274.3652585460757</v>
       </c>
       <c r="E44" t="n">
-        <v>301.6125869976546</v>
+        <v>301.6125869976545</v>
       </c>
       <c r="F44" t="n">
-        <v>326.5582626671043</v>
+        <v>326.5582626671042</v>
       </c>
       <c r="G44" t="n">
         <v>332.2473618380862</v>
       </c>
       <c r="H44" t="n">
-        <v>231.1206488014044</v>
+        <v>231.1206488014043</v>
       </c>
       <c r="I44" t="n">
         <v>24.61706769016685</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.31939508349895</v>
+        <v>66.31939508349893</v>
       </c>
       <c r="T44" t="n">
         <v>130.7942548723358</v>
       </c>
       <c r="U44" t="n">
-        <v>170.808862425034</v>
+        <v>170.8088624250339</v>
       </c>
       <c r="V44" t="n">
         <v>247.4344753955277</v>
@@ -4040,7 +4040,7 @@
         <v>268.9231856428058</v>
       </c>
       <c r="X44" t="n">
-        <v>289.4133176038619</v>
+        <v>289.4133176038618</v>
       </c>
       <c r="Y44" t="n">
         <v>305.9201555814464</v>
@@ -4074,7 +4074,7 @@
         <v>98.08912816096901</v>
       </c>
       <c r="I45" t="n">
-        <v>38.96585120160105</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.215395294710959</v>
+        <v>9.215395294710987</v>
       </c>
       <c r="S45" t="n">
         <v>144.4762462265178</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.51419710733009</v>
+        <v>99.51419710733006</v>
       </c>
       <c r="C46" t="n">
-        <v>86.92903802402063</v>
+        <v>86.9290380240206</v>
       </c>
       <c r="D46" t="n">
-        <v>68.29768994360515</v>
+        <v>68.29768994360512</v>
       </c>
       <c r="E46" t="n">
-        <v>66.11617957196196</v>
+        <v>66.11617957196194</v>
       </c>
       <c r="F46" t="n">
-        <v>65.10326494832404</v>
+        <v>65.10326494832401</v>
       </c>
       <c r="G46" t="n">
-        <v>86.44520648738745</v>
+        <v>86.44520648738744</v>
       </c>
       <c r="H46" t="n">
-        <v>70.99144378790615</v>
+        <v>70.99144378790612</v>
       </c>
       <c r="I46" t="n">
-        <v>38.2036896098945</v>
+        <v>38.20368960989448</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76072163609494</v>
+        <v>41.76072163609493</v>
       </c>
       <c r="S46" t="n">
         <v>122.2983018730772</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1550.31970677401</v>
+        <v>1278.736396760185</v>
       </c>
       <c r="C11" t="n">
-        <v>1248.346477796729</v>
+        <v>976.7631677829038</v>
       </c>
       <c r="D11" t="n">
-        <v>957.0700671531088</v>
+        <v>685.4867571392836</v>
       </c>
       <c r="E11" t="n">
-        <v>957.0700671531088</v>
+        <v>685.4867571392836</v>
       </c>
       <c r="F11" t="n">
-        <v>613.0734503266315</v>
+        <v>685.4867571392836</v>
       </c>
       <c r="G11" t="n">
-        <v>263.3302686809808</v>
+        <v>335.7435754936328</v>
       </c>
       <c r="H11" t="n">
-        <v>49.14307804536248</v>
+        <v>88.14858883452925</v>
       </c>
       <c r="I11" t="n">
-        <v>49.14307804536248</v>
+        <v>49.14307804536249</v>
       </c>
       <c r="J11" t="n">
         <v>267.3395342243635</v>
       </c>
       <c r="K11" t="n">
-        <v>687.2455770279776</v>
+        <v>715.1042646880949</v>
       </c>
       <c r="L11" t="n">
-        <v>881.5293443714033</v>
+        <v>909.3880320315205</v>
       </c>
       <c r="M11" t="n">
-        <v>1129.376907459352</v>
+        <v>1157.235595119469</v>
       </c>
       <c r="N11" t="n">
-        <v>1385.848711613545</v>
+        <v>1413.707399273662</v>
       </c>
       <c r="O11" t="n">
-        <v>1991.684681794888</v>
+        <v>1694.979182243377</v>
       </c>
       <c r="P11" t="n">
-        <v>2152.496561836816</v>
+        <v>2174.371783375072</v>
       </c>
       <c r="Q11" t="n">
-        <v>2435.278680729868</v>
+        <v>2457.153902268125</v>
       </c>
       <c r="R11" t="n">
-        <v>2457.153902268124</v>
+        <v>2457.153902268125</v>
       </c>
       <c r="S11" t="n">
-        <v>2457.153902268124</v>
+        <v>2376.02482845539</v>
       </c>
       <c r="T11" t="n">
-        <v>2457.153902268124</v>
+        <v>2229.76963364383</v>
       </c>
       <c r="U11" t="n">
-        <v>2457.153902268124</v>
+        <v>2043.095643324495</v>
       </c>
       <c r="V11" t="n">
-        <v>2193.080302887684</v>
+        <v>1779.022043944055</v>
       </c>
       <c r="W11" t="n">
-        <v>2193.080302887684</v>
+        <v>1493.242676637071</v>
       </c>
       <c r="X11" t="n">
-        <v>2193.080302887684</v>
+        <v>1278.736396760185</v>
       </c>
       <c r="Y11" t="n">
-        <v>1869.930258875002</v>
+        <v>1278.736396760185</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>820.0146160115133</v>
+        <v>804.3439145234777</v>
       </c>
       <c r="C12" t="n">
-        <v>712.5508746935166</v>
+        <v>629.8908852423507</v>
       </c>
       <c r="D12" t="n">
-        <v>563.6164650322653</v>
+        <v>480.9564755810994</v>
       </c>
       <c r="E12" t="n">
-        <v>404.3790100268097</v>
+        <v>365.0195643686269</v>
       </c>
       <c r="F12" t="n">
-        <v>257.8444520536947</v>
+        <v>218.4850063955118</v>
       </c>
       <c r="G12" t="n">
-        <v>120.5931631757373</v>
+        <v>81.23371751755442</v>
       </c>
       <c r="H12" t="n">
-        <v>88.50252370354536</v>
+        <v>49.14307804536249</v>
       </c>
       <c r="I12" t="n">
-        <v>49.14307804536248</v>
+        <v>49.14307804536249</v>
       </c>
       <c r="J12" t="n">
         <v>185.4060128672025</v>
       </c>
       <c r="K12" t="n">
-        <v>544.921915233472</v>
+        <v>544.9219152334717</v>
       </c>
       <c r="L12" t="n">
-        <v>722.6078674193332</v>
+        <v>1089.739809269758</v>
       </c>
       <c r="M12" t="n">
-        <v>949.3158608875742</v>
+        <v>1607.425665576283</v>
       </c>
       <c r="N12" t="n">
-        <v>1196.432785267978</v>
+        <v>1854.542589956687</v>
       </c>
       <c r="O12" t="n">
-        <v>1743.108361402624</v>
+        <v>2058.386502356163</v>
       </c>
       <c r="P12" t="n">
-        <v>2202.656147010231</v>
+        <v>2202.656147010232</v>
       </c>
       <c r="Q12" t="n">
-        <v>2457.153902268124</v>
+        <v>2457.153902268125</v>
       </c>
       <c r="R12" t="n">
-        <v>2447.845422172456</v>
+        <v>2447.845422172457</v>
       </c>
       <c r="S12" t="n">
         <v>2301.909819923449</v>
@@ -5151,7 +5151,7 @@
         <v>2105.686795807362</v>
       </c>
       <c r="U12" t="n">
-        <v>1877.560515473976</v>
+        <v>1877.560515473977</v>
       </c>
       <c r="V12" t="n">
         <v>1642.408407242234</v>
@@ -5160,10 +5160,10 @@
         <v>1388.171050514032</v>
       </c>
       <c r="X12" t="n">
-        <v>1180.319550308499</v>
+        <v>1180.3195503085</v>
       </c>
       <c r="Y12" t="n">
-        <v>972.5592515435453</v>
+        <v>972.5592515435458</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.0776520967333</v>
+        <v>549.2293371684364</v>
       </c>
       <c r="C13" t="n">
-        <v>533.1307571319567</v>
+        <v>447.2824422036597</v>
       </c>
       <c r="D13" t="n">
-        <v>450.0034056827512</v>
+        <v>364.1550907544543</v>
       </c>
       <c r="E13" t="n">
-        <v>369.0796000634883</v>
+        <v>283.2312851351915</v>
       </c>
       <c r="F13" t="n">
-        <v>289.1789405287087</v>
+        <v>203.3306256004115</v>
       </c>
       <c r="G13" t="n">
-        <v>187.720764287804</v>
+        <v>101.8724493595066</v>
       </c>
       <c r="H13" t="n">
         <v>101.8724493595066</v>
       </c>
       <c r="I13" t="n">
-        <v>49.14307804536248</v>
+        <v>49.14307804536249</v>
       </c>
       <c r="J13" t="n">
         <v>108.3243806864317</v>
       </c>
       <c r="K13" t="n">
-        <v>293.1771713007716</v>
+        <v>293.1771713007717</v>
       </c>
       <c r="L13" t="n">
-        <v>566.8904036235126</v>
+        <v>566.8904036235131</v>
       </c>
       <c r="M13" t="n">
-        <v>862.3026954922722</v>
+        <v>862.3026954922725</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.686517475293</v>
+        <v>1157.686517475294</v>
       </c>
       <c r="O13" t="n">
-        <v>1419.51706344167</v>
+        <v>1419.517063441671</v>
       </c>
       <c r="P13" t="n">
         <v>1629.513624516004</v>
@@ -5221,28 +5221,28 @@
         <v>1711.668528966567</v>
       </c>
       <c r="R13" t="n">
-        <v>1655.346196009796</v>
+        <v>1711.668528966567</v>
       </c>
       <c r="S13" t="n">
-        <v>1517.672771904558</v>
+        <v>1711.668528966567</v>
       </c>
       <c r="T13" t="n">
-        <v>1359.713853873448</v>
+        <v>1553.709610935456</v>
       </c>
       <c r="U13" t="n">
-        <v>1137.559658912471</v>
+        <v>1331.55541597448</v>
       </c>
       <c r="V13" t="n">
-        <v>1125.968002218073</v>
+        <v>1201.119950224663</v>
       </c>
       <c r="W13" t="n">
-        <v>903.5401201442426</v>
+        <v>978.6920681508326</v>
       </c>
       <c r="X13" t="n">
-        <v>903.5401201442426</v>
+        <v>817.6918052159456</v>
       </c>
       <c r="Y13" t="n">
-        <v>749.7368289638428</v>
+        <v>663.8885140355458</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1600.589428281306</v>
+        <v>1162.574701438301</v>
       </c>
       <c r="C14" t="n">
-        <v>1298.616199304024</v>
+        <v>1162.574701438301</v>
       </c>
       <c r="D14" t="n">
-        <v>1007.339788660404</v>
+        <v>1162.574701438301</v>
       </c>
       <c r="E14" t="n">
-        <v>688.54082402529</v>
+        <v>843.7757368031876</v>
       </c>
       <c r="F14" t="n">
-        <v>688.54082402529</v>
+        <v>499.7791199767106</v>
       </c>
       <c r="G14" t="n">
-        <v>338.797642379639</v>
+        <v>150.0359383310596</v>
       </c>
       <c r="H14" t="n">
-        <v>91.20265572053532</v>
+        <v>91.20265572053529</v>
       </c>
       <c r="I14" t="n">
         <v>52.19714493136854</v>
       </c>
       <c r="J14" t="n">
-        <v>102.9879520900166</v>
+        <v>270.3936011103696</v>
       </c>
       <c r="K14" t="n">
-        <v>550.7526825537481</v>
+        <v>397.2543731286478</v>
       </c>
       <c r="L14" t="n">
-        <v>745.0364498971738</v>
+        <v>591.5381404720735</v>
       </c>
       <c r="M14" t="n">
-        <v>992.884012985122</v>
+        <v>839.3857035600214</v>
       </c>
       <c r="N14" t="n">
-        <v>1249.355817139316</v>
+        <v>1219.971334824081</v>
       </c>
       <c r="O14" t="n">
-        <v>1847.682526543679</v>
+        <v>1825.807305005423</v>
       </c>
       <c r="P14" t="n">
-        <v>2327.075127675374</v>
+        <v>2305.199906137118</v>
       </c>
       <c r="Q14" t="n">
-        <v>2609.857246568427</v>
+        <v>2587.982025030171</v>
       </c>
       <c r="R14" t="n">
         <v>2609.857246568427</v>
@@ -5306,22 +5306,22 @@
         <v>2528.728172755692</v>
       </c>
       <c r="T14" t="n">
-        <v>2382.472977944133</v>
+        <v>2528.728172755692</v>
       </c>
       <c r="U14" t="n">
-        <v>2382.472977944133</v>
+        <v>2342.054182436357</v>
       </c>
       <c r="V14" t="n">
-        <v>2118.399378563692</v>
+        <v>2077.980583055916</v>
       </c>
       <c r="W14" t="n">
-        <v>1907.065898579255</v>
+        <v>1792.201215748933</v>
       </c>
       <c r="X14" t="n">
-        <v>1600.589428281306</v>
+        <v>1485.724745450983</v>
       </c>
       <c r="Y14" t="n">
-        <v>1600.589428281306</v>
+        <v>1162.574701438301</v>
       </c>
     </row>
     <row r="15">
@@ -5343,13 +5343,13 @@
         <v>474.4223648759464</v>
       </c>
       <c r="F15" t="n">
-        <v>327.8878069028311</v>
+        <v>327.8878069028314</v>
       </c>
       <c r="G15" t="n">
-        <v>190.6365180248737</v>
+        <v>190.6365180248739</v>
       </c>
       <c r="H15" t="n">
-        <v>91.55659058955143</v>
+        <v>91.5565905895517</v>
       </c>
       <c r="I15" t="n">
         <v>52.19714493136854</v>
@@ -5358,19 +5358,19 @@
         <v>188.4600797532086</v>
       </c>
       <c r="K15" t="n">
-        <v>547.975982119478</v>
+        <v>547.9759821194777</v>
       </c>
       <c r="L15" t="n">
-        <v>1092.793876155764</v>
+        <v>1092.793876155763</v>
       </c>
       <c r="M15" t="n">
-        <v>1319.501869624005</v>
+        <v>1444.850868923048</v>
       </c>
       <c r="N15" t="n">
-        <v>1566.618794004409</v>
+        <v>1691.967793303452</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.811705702927</v>
+        <v>1895.811705702928</v>
       </c>
       <c r="P15" t="n">
         <v>2355.359491310534</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.13171898274</v>
+        <v>638.1317189827394</v>
       </c>
       <c r="C16" t="n">
-        <v>536.1848240179635</v>
+        <v>536.184824017963</v>
       </c>
       <c r="D16" t="n">
-        <v>453.057472568758</v>
+        <v>453.0574725687576</v>
       </c>
       <c r="E16" t="n">
-        <v>372.1336669494951</v>
+        <v>372.1336669494948</v>
       </c>
       <c r="F16" t="n">
-        <v>292.233007414715</v>
+        <v>292.2330074147147</v>
       </c>
       <c r="G16" t="n">
         <v>190.77483117381</v>
@@ -5434,7 +5434,7 @@
         <v>52.19714493136854</v>
       </c>
       <c r="J16" t="n">
-        <v>111.3784475724377</v>
+        <v>111.3784475724378</v>
       </c>
       <c r="K16" t="n">
         <v>296.2312381867778</v>
@@ -5449,7 +5449,7 @@
         <v>1160.7405843613</v>
       </c>
       <c r="O16" t="n">
-        <v>1422.571130327677</v>
+        <v>1422.571130327676</v>
       </c>
       <c r="P16" t="n">
         <v>1632.56769140201</v>
@@ -5458,28 +5458,28 @@
         <v>1714.722595852573</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.400262895802</v>
+        <v>1699.871727242699</v>
       </c>
       <c r="S16" t="n">
-        <v>1520.726838790565</v>
+        <v>1699.871727242699</v>
       </c>
       <c r="T16" t="n">
-        <v>1520.726838790565</v>
+        <v>1699.871727242699</v>
       </c>
       <c r="U16" t="n">
-        <v>1316.717269346836</v>
+        <v>1477.717532281722</v>
       </c>
       <c r="V16" t="n">
-        <v>1129.022069104079</v>
+        <v>1290.022332038966</v>
       </c>
       <c r="W16" t="n">
-        <v>906.5941870302493</v>
+        <v>1067.594449965135</v>
       </c>
       <c r="X16" t="n">
-        <v>906.5941870302493</v>
+        <v>906.5941870302486</v>
       </c>
       <c r="Y16" t="n">
-        <v>752.7908958498494</v>
+        <v>752.7908958498488</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1418.806091442209</v>
+        <v>1345.741545027626</v>
       </c>
       <c r="C17" t="n">
         <v>1197.961936277662</v>
       </c>
       <c r="D17" t="n">
-        <v>987.814599446776</v>
+        <v>987.8145994467759</v>
       </c>
       <c r="E17" t="n">
         <v>750.1447086243966</v>
@@ -5513,19 +5513,19 @@
         <v>52.19714493136854</v>
       </c>
       <c r="J17" t="n">
-        <v>102.9879520900166</v>
+        <v>270.3936011103696</v>
       </c>
       <c r="K17" t="n">
-        <v>506.750998821941</v>
+        <v>543.2434217767697</v>
       </c>
       <c r="L17" t="n">
-        <v>1114.519368570313</v>
+        <v>737.5271891201953</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.366931658261</v>
+        <v>985.3747522081433</v>
       </c>
       <c r="N17" t="n">
-        <v>1618.838735812454</v>
+        <v>1241.846556362337</v>
       </c>
       <c r="O17" t="n">
         <v>1847.682526543679</v>
@@ -5546,7 +5546,7 @@
         <v>2544.731125569602</v>
       </c>
       <c r="U17" t="n">
-        <v>2439.186209063001</v>
+        <v>2439.186209063</v>
       </c>
       <c r="V17" t="n">
         <v>2256.241683495295</v>
@@ -5555,10 +5555,10 @@
         <v>2051.591390001046</v>
       </c>
       <c r="X17" t="n">
-        <v>1826.243993515831</v>
+        <v>1826.24399351583</v>
       </c>
       <c r="Y17" t="n">
-        <v>1657.287569730465</v>
+        <v>1584.223023315883</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.0472588237799</v>
+        <v>957.0472588237794</v>
       </c>
       <c r="C18" t="n">
-        <v>782.5942295426529</v>
+        <v>782.5942295426524</v>
       </c>
       <c r="D18" t="n">
-        <v>633.6598198814017</v>
+        <v>633.6598198814013</v>
       </c>
       <c r="E18" t="n">
-        <v>474.4223648759462</v>
+        <v>474.4223648759457</v>
       </c>
       <c r="F18" t="n">
-        <v>327.8878069028312</v>
+        <v>327.8878069028308</v>
       </c>
       <c r="G18" t="n">
-        <v>190.636518024874</v>
+        <v>190.6365180248737</v>
       </c>
       <c r="H18" t="n">
         <v>91.55659058955143</v>
@@ -5595,19 +5595,19 @@
         <v>188.4600797532086</v>
       </c>
       <c r="K18" t="n">
-        <v>547.975982119478</v>
+        <v>547.9759821194777</v>
       </c>
       <c r="L18" t="n">
-        <v>1092.793876155764</v>
+        <v>1092.793876155763</v>
       </c>
       <c r="M18" t="n">
-        <v>1319.501869624005</v>
+        <v>1370.205313792623</v>
       </c>
       <c r="N18" t="n">
-        <v>1566.618794004409</v>
+        <v>1617.322238173027</v>
       </c>
       <c r="O18" t="n">
-        <v>1895.811705702927</v>
+        <v>2211.089846656465</v>
       </c>
       <c r="P18" t="n">
         <v>2355.359491310534</v>
@@ -5622,7 +5622,7 @@
         <v>2454.613164223751</v>
       </c>
       <c r="T18" t="n">
-        <v>2258.390140107665</v>
+        <v>2258.390140107664</v>
       </c>
       <c r="U18" t="n">
         <v>2030.263859774279</v>
@@ -5631,10 +5631,10 @@
         <v>1795.111751542536</v>
       </c>
       <c r="W18" t="n">
-        <v>1540.874394814335</v>
+        <v>1540.874394814334</v>
       </c>
       <c r="X18" t="n">
-        <v>1333.022894608802</v>
+        <v>1333.022894608801</v>
       </c>
       <c r="Y18" t="n">
         <v>1125.262595843848</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.6679524218582</v>
+        <v>100.0615872636144</v>
       </c>
       <c r="C19" t="n">
-        <v>85.85013126981615</v>
+        <v>79.24376611157237</v>
       </c>
       <c r="D19" t="n">
-        <v>83.85185363334527</v>
+        <v>77.2454884751015</v>
       </c>
       <c r="E19" t="n">
-        <v>83.85185363334527</v>
+        <v>77.2454884751015</v>
       </c>
       <c r="F19" t="n">
-        <v>83.85185363334527</v>
+        <v>77.2454884751015</v>
       </c>
       <c r="G19" t="n">
-        <v>63.5227512051751</v>
+        <v>56.91638604693133</v>
       </c>
       <c r="H19" t="n">
-        <v>58.80351008961232</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="I19" t="n">
-        <v>58.80351008961232</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J19" t="n">
         <v>52.19714493136854</v>
       </c>
       <c r="K19" t="n">
-        <v>171.3937344130446</v>
+        <v>171.3937344130445</v>
       </c>
       <c r="L19" t="n">
-        <v>379.4507656031217</v>
+        <v>379.4507656031216</v>
       </c>
       <c r="M19" t="n">
-        <v>609.2068563392172</v>
+        <v>609.206856339217</v>
       </c>
       <c r="N19" t="n">
-        <v>838.9344771895744</v>
+        <v>838.9344771895742</v>
       </c>
       <c r="O19" t="n">
         <v>1035.108822023287</v>
       </c>
       <c r="P19" t="n">
-        <v>1179.449181964957</v>
+        <v>1179.449181964956</v>
       </c>
       <c r="Q19" t="n">
         <v>1195.947885282856</v>
@@ -5698,25 +5698,25 @@
         <v>1195.947885282856</v>
       </c>
       <c r="S19" t="n">
-        <v>991.2851732144879</v>
+        <v>1048.093720417272</v>
       </c>
       <c r="T19" t="n">
-        <v>766.3369672202469</v>
+        <v>971.2638761988962</v>
       </c>
       <c r="U19" t="n">
-        <v>540.6083966571686</v>
+        <v>682.1203932747896</v>
       </c>
       <c r="V19" t="n">
-        <v>434.0422702271466</v>
+        <v>575.5542668447677</v>
       </c>
       <c r="W19" t="n">
-        <v>292.7434619660508</v>
+        <v>286.137096807807</v>
       </c>
       <c r="X19" t="n">
-        <v>212.8722728438983</v>
+        <v>206.2659076856545</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.1980554762331</v>
+        <v>133.5916903179893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1418.806091442208</v>
+        <v>1345.741545027627</v>
       </c>
       <c r="C20" t="n">
-        <v>1197.961936277661</v>
+        <v>1124.89738986308</v>
       </c>
       <c r="D20" t="n">
-        <v>987.8145994467757</v>
+        <v>987.814599446776</v>
       </c>
       <c r="E20" t="n">
-        <v>750.1447086243963</v>
+        <v>750.1447086243966</v>
       </c>
       <c r="F20" t="n">
-        <v>487.2771656106536</v>
+        <v>487.2771656106539</v>
       </c>
       <c r="G20" t="n">
         <v>218.6630577777376</v>
@@ -5753,16 +5753,16 @@
         <v>270.3936011103696</v>
       </c>
       <c r="K20" t="n">
-        <v>508.8925153171388</v>
+        <v>718.1583315741009</v>
       </c>
       <c r="L20" t="n">
-        <v>703.1762826605645</v>
+        <v>912.4420989175266</v>
       </c>
       <c r="M20" t="n">
-        <v>951.0238457485127</v>
+        <v>1160.289662005475</v>
       </c>
       <c r="N20" t="n">
-        <v>1596.963514274198</v>
+        <v>1416.761466159668</v>
       </c>
       <c r="O20" t="n">
         <v>1825.807305005423</v>
@@ -5783,19 +5783,19 @@
         <v>2544.731125569602</v>
       </c>
       <c r="U20" t="n">
-        <v>2512.250755477582</v>
+        <v>2439.186209063001</v>
       </c>
       <c r="V20" t="n">
-        <v>2329.306229909876</v>
+        <v>2256.241683495295</v>
       </c>
       <c r="W20" t="n">
-        <v>2124.655936415627</v>
+        <v>2051.591390001046</v>
       </c>
       <c r="X20" t="n">
-        <v>1899.308539930412</v>
+        <v>1826.24399351583</v>
       </c>
       <c r="Y20" t="n">
-        <v>1657.287569730465</v>
+        <v>1584.223023315884</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>188.4600797532086</v>
       </c>
       <c r="K21" t="n">
-        <v>547.975982119478</v>
+        <v>547.9759821194777</v>
       </c>
       <c r="L21" t="n">
-        <v>1092.793876155764</v>
+        <v>725.6619343053388</v>
       </c>
       <c r="M21" t="n">
-        <v>1444.850868923047</v>
+        <v>1371.601602831025</v>
       </c>
       <c r="N21" t="n">
-        <v>1691.967793303451</v>
+        <v>1618.718527211429</v>
       </c>
       <c r="O21" t="n">
-        <v>1895.811705702927</v>
+        <v>1895.811705702928</v>
       </c>
       <c r="P21" t="n">
         <v>2355.359491310534</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>254.7863141977231</v>
+        <v>395.0698965373897</v>
       </c>
       <c r="C22" t="n">
-        <v>233.968493045681</v>
+        <v>374.2520753853476</v>
       </c>
       <c r="D22" t="n">
-        <v>231.9702154092101</v>
+        <v>372.2537977488768</v>
       </c>
       <c r="E22" t="n">
-        <v>231.9702154092101</v>
+        <v>372.2537977488768</v>
       </c>
       <c r="F22" t="n">
-        <v>231.9702154092101</v>
+        <v>225.3638502509664</v>
       </c>
       <c r="G22" t="n">
-        <v>211.64111298104</v>
+        <v>205.0347478227962</v>
       </c>
       <c r="H22" t="n">
-        <v>58.80351008961232</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="I22" t="n">
-        <v>58.80351008961232</v>
+        <v>52.19714493136854</v>
       </c>
       <c r="J22" t="n">
         <v>52.19714493136854</v>
       </c>
       <c r="K22" t="n">
-        <v>171.3937344130446</v>
+        <v>171.3937344130445</v>
       </c>
       <c r="L22" t="n">
-        <v>379.4507656031217</v>
+        <v>379.4507656031216</v>
       </c>
       <c r="M22" t="n">
-        <v>609.2068563392172</v>
+        <v>609.206856339217</v>
       </c>
       <c r="N22" t="n">
-        <v>838.9344771895744</v>
+        <v>838.9344771895742</v>
       </c>
       <c r="O22" t="n">
         <v>1035.108822023287</v>
       </c>
       <c r="P22" t="n">
-        <v>1179.449181964957</v>
+        <v>1179.449181964956</v>
       </c>
       <c r="Q22" t="n">
         <v>1195.947885282856</v>
@@ -5938,22 +5938,22 @@
         <v>1139.403534990353</v>
       </c>
       <c r="T22" t="n">
-        <v>1062.573690771977</v>
+        <v>970.035461920942</v>
       </c>
       <c r="U22" t="n">
-        <v>921.5485696237349</v>
+        <v>829.0103407727001</v>
       </c>
       <c r="V22" t="n">
-        <v>730.2789937788764</v>
+        <v>722.4442143426782</v>
       </c>
       <c r="W22" t="n">
-        <v>440.8618237419157</v>
+        <v>581.1454060815823</v>
       </c>
       <c r="X22" t="n">
-        <v>360.9906346197632</v>
+        <v>501.2742169594299</v>
       </c>
       <c r="Y22" t="n">
-        <v>288.3164172520979</v>
+        <v>428.5999995917646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1420.297204634343</v>
+        <v>1420.297204634341</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.453049469796</v>
+        <v>1199.453049469794</v>
       </c>
       <c r="D23" t="n">
-        <v>989.3057126389103</v>
+        <v>989.3057126389092</v>
       </c>
       <c r="E23" t="n">
-        <v>751.635821816531</v>
+        <v>751.6358218165301</v>
       </c>
       <c r="F23" t="n">
-        <v>488.7682788027882</v>
+        <v>488.7682788027878</v>
       </c>
       <c r="G23" t="n">
         <v>220.1541709698719</v>
@@ -5987,19 +5987,19 @@
         <v>53.68825812350285</v>
       </c>
       <c r="J23" t="n">
-        <v>170.0343509197526</v>
+        <v>271.8847143025039</v>
       </c>
       <c r="K23" t="n">
-        <v>617.799081383484</v>
+        <v>578.2466296432032</v>
       </c>
       <c r="L23" t="n">
-        <v>812.0828487269098</v>
+        <v>772.5303969866288</v>
       </c>
       <c r="M23" t="n">
-        <v>1059.930411814858</v>
+        <v>1436.922591264977</v>
       </c>
       <c r="N23" t="n">
-        <v>1316.402215969052</v>
+        <v>1693.39439541917</v>
       </c>
       <c r="O23" t="n">
         <v>1922.238186150395</v>
@@ -6020,19 +6020,19 @@
         <v>2619.286785176317</v>
       </c>
       <c r="U23" t="n">
-        <v>2513.741868669717</v>
+        <v>2513.741868669716</v>
       </c>
       <c r="V23" t="n">
-        <v>2330.797343102011</v>
+        <v>2330.79734310201</v>
       </c>
       <c r="W23" t="n">
-        <v>2126.147049607762</v>
+        <v>2126.14704960776</v>
       </c>
       <c r="X23" t="n">
-        <v>1900.799653122547</v>
+        <v>1900.799653122545</v>
       </c>
       <c r="Y23" t="n">
-        <v>1658.7786829226</v>
+        <v>1658.778682922598</v>
       </c>
     </row>
     <row r="24">
@@ -6051,16 +6051,16 @@
         <v>635.150933073536</v>
       </c>
       <c r="E24" t="n">
-        <v>475.9134780680804</v>
+        <v>475.9134780680805</v>
       </c>
       <c r="F24" t="n">
-        <v>329.3789200949653</v>
+        <v>329.3789200949655</v>
       </c>
       <c r="G24" t="n">
-        <v>192.1276312170079</v>
+        <v>192.127631217008</v>
       </c>
       <c r="H24" t="n">
-        <v>93.04770378168573</v>
+        <v>93.04770378168575</v>
       </c>
       <c r="I24" t="n">
         <v>53.68825812350285</v>
@@ -6069,19 +6069,19 @@
         <v>189.9511929453429</v>
       </c>
       <c r="K24" t="n">
-        <v>549.4670953116123</v>
+        <v>549.4670953116122</v>
       </c>
       <c r="L24" t="n">
         <v>1094.284989347898</v>
       </c>
       <c r="M24" t="n">
-        <v>1446.341982115181</v>
+        <v>1320.992982816139</v>
       </c>
       <c r="N24" t="n">
-        <v>1693.458906495585</v>
+        <v>1568.109907196543</v>
       </c>
       <c r="O24" t="n">
-        <v>1897.302818895061</v>
+        <v>1897.302818895062</v>
       </c>
       <c r="P24" t="n">
         <v>2356.850604502668</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>489.0992385805589</v>
+        <v>108.1590656139925</v>
       </c>
       <c r="C25" t="n">
-        <v>468.2814174285168</v>
+        <v>87.34124446195048</v>
       </c>
       <c r="D25" t="n">
-        <v>466.283139792046</v>
+        <v>85.34296682547961</v>
       </c>
       <c r="E25" t="n">
-        <v>466.283139792046</v>
+        <v>85.34296682547961</v>
       </c>
       <c r="F25" t="n">
-        <v>381.5796903772093</v>
+        <v>85.34296682547961</v>
       </c>
       <c r="G25" t="n">
-        <v>213.1322261731743</v>
+        <v>65.01386439730943</v>
       </c>
       <c r="H25" t="n">
-        <v>60.29462328174662</v>
+        <v>60.29462328174665</v>
       </c>
       <c r="I25" t="n">
-        <v>60.29462328174662</v>
+        <v>60.29462328174665</v>
       </c>
       <c r="J25" t="n">
         <v>53.68825812350285</v>
       </c>
       <c r="K25" t="n">
-        <v>172.8848476051789</v>
+        <v>172.8848476051788</v>
       </c>
       <c r="L25" t="n">
-        <v>380.941878795256</v>
+        <v>380.9418787952559</v>
       </c>
       <c r="M25" t="n">
-        <v>610.6979695313515</v>
+        <v>610.6979695313513</v>
       </c>
       <c r="N25" t="n">
-        <v>840.4255903817088</v>
+        <v>840.4255903817085</v>
       </c>
       <c r="O25" t="n">
-        <v>1036.599935215422</v>
+        <v>1036.599935215421</v>
       </c>
       <c r="P25" t="n">
         <v>1180.940295157091</v>
       </c>
       <c r="Q25" t="n">
-        <v>1197.438998474991</v>
+        <v>1197.43899847499</v>
       </c>
       <c r="R25" t="n">
-        <v>1197.438998474991</v>
+        <v>1197.43899847499</v>
       </c>
       <c r="S25" t="n">
         <v>1140.894648182487</v>
       </c>
       <c r="T25" t="n">
-        <v>1064.064803964111</v>
+        <v>915.9464421882459</v>
       </c>
       <c r="U25" t="n">
-        <v>923.0396828158694</v>
+        <v>626.8029592641392</v>
       </c>
       <c r="V25" t="n">
-        <v>816.4735563858474</v>
+        <v>520.2368328341172</v>
       </c>
       <c r="W25" t="n">
-        <v>675.1747481247515</v>
+        <v>378.9380245730214</v>
       </c>
       <c r="X25" t="n">
-        <v>595.3035590025991</v>
+        <v>214.3633860360326</v>
       </c>
       <c r="Y25" t="n">
-        <v>522.6293416349338</v>
+        <v>141.6891686683674</v>
       </c>
     </row>
     <row r="26">
@@ -6209,46 +6209,46 @@
         <v>1301.775849766165</v>
       </c>
       <c r="E26" t="n">
-        <v>997.1166709806557</v>
+        <v>997.1166709806553</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2598400037828</v>
+        <v>667.2598400037823</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6564442077361</v>
+        <v>331.6564442077356</v>
       </c>
       <c r="H26" t="n">
-        <v>98.20124339823647</v>
+        <v>98.20124339823653</v>
       </c>
       <c r="I26" t="n">
-        <v>73.335518458674</v>
+        <v>73.33551845867402</v>
       </c>
       <c r="J26" t="n">
-        <v>291.5319746376751</v>
+        <v>291.531974637675</v>
       </c>
       <c r="K26" t="n">
-        <v>739.2967051014066</v>
+        <v>739.2967051014064</v>
       </c>
       <c r="L26" t="n">
         <v>1347.065074849778</v>
       </c>
       <c r="M26" t="n">
-        <v>1594.912637937726</v>
+        <v>1609.319973405553</v>
       </c>
       <c r="N26" t="n">
-        <v>2276.890011189354</v>
+        <v>2298.765232727611</v>
       </c>
       <c r="O26" t="n">
-        <v>2882.725981370696</v>
+        <v>2904.601202908953</v>
       </c>
       <c r="P26" t="n">
-        <v>3362.118582502392</v>
+        <v>3383.993804040648</v>
       </c>
       <c r="Q26" t="n">
-        <v>3644.900701395444</v>
+        <v>3666.775922933701</v>
       </c>
       <c r="R26" t="n">
-        <v>3666.7759229337</v>
+        <v>3666.775922933701</v>
       </c>
       <c r="S26" t="n">
         <v>3599.78663497057</v>
@@ -6257,19 +6257,19 @@
         <v>3467.671226008615</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.137021538884</v>
+        <v>3295.137021538883</v>
       </c>
       <c r="V26" t="n">
-        <v>3045.203208008048</v>
+        <v>3045.203208008047</v>
       </c>
       <c r="W26" t="n">
-        <v>2773.563626550668</v>
+        <v>2773.563626550667</v>
       </c>
       <c r="X26" t="n">
-        <v>2481.226942102323</v>
+        <v>2481.226942102322</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.216683939246</v>
+        <v>2172.216683939245</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>978.1856323510852</v>
+        <v>978.1856323510855</v>
       </c>
       <c r="C27" t="n">
-        <v>803.7326030699583</v>
+        <v>803.7326030699585</v>
       </c>
       <c r="D27" t="n">
-        <v>654.798193408707</v>
+        <v>654.7981934087072</v>
       </c>
       <c r="E27" t="n">
-        <v>495.5607384032515</v>
+        <v>495.5607384032517</v>
       </c>
       <c r="F27" t="n">
-        <v>349.0261804301365</v>
+        <v>349.0261804301366</v>
       </c>
       <c r="G27" t="n">
-        <v>211.7748915521791</v>
+        <v>211.7748915521792</v>
       </c>
       <c r="H27" t="n">
         <v>112.6949641168569</v>
       </c>
       <c r="I27" t="n">
-        <v>73.335518458674</v>
+        <v>73.33551845867402</v>
       </c>
       <c r="J27" t="n">
-        <v>209.5984532805141</v>
+        <v>84.7683282935093</v>
       </c>
       <c r="K27" t="n">
-        <v>569.1143556467835</v>
+        <v>182.4636460173258</v>
       </c>
       <c r="L27" t="n">
-        <v>1113.932249683069</v>
+        <v>360.1495982031869</v>
       </c>
       <c r="M27" t="n">
-        <v>1340.64024315131</v>
+        <v>1047.905604783928</v>
       </c>
       <c r="N27" t="n">
-        <v>1713.106166830757</v>
+        <v>1323.182470746795</v>
       </c>
       <c r="O27" t="n">
         <v>1916.950079230233</v>
       </c>
       <c r="P27" t="n">
-        <v>2376.497864837839</v>
+        <v>2376.49786483784</v>
       </c>
       <c r="Q27" t="n">
-        <v>2630.995620095732</v>
+        <v>2630.995620095733</v>
       </c>
       <c r="R27" t="n">
         <v>2621.687140000065</v>
@@ -6336,10 +6336,10 @@
         <v>2279.52851363497</v>
       </c>
       <c r="U27" t="n">
-        <v>2051.402233301584</v>
+        <v>2051.402233301585</v>
       </c>
       <c r="V27" t="n">
-        <v>1816.250125069841</v>
+        <v>1816.250125069842</v>
       </c>
       <c r="W27" t="n">
         <v>1562.01276834164</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.2915915628155</v>
+        <v>560.291591562815</v>
       </c>
       <c r="C28" t="n">
-        <v>472.4844824476431</v>
+        <v>472.4844824476426</v>
       </c>
       <c r="D28" t="n">
-        <v>403.496916848042</v>
+        <v>403.4969168480415</v>
       </c>
       <c r="E28" t="n">
-        <v>336.7128970783834</v>
+        <v>336.7128970783829</v>
       </c>
       <c r="F28" t="n">
-        <v>270.9520233932076</v>
+        <v>270.9520233932071</v>
       </c>
       <c r="G28" t="n">
-        <v>183.6336330019072</v>
+        <v>183.6336330019066</v>
       </c>
       <c r="H28" t="n">
-        <v>111.9251039232139</v>
+        <v>111.9251039232136</v>
       </c>
       <c r="I28" t="n">
-        <v>73.335518458674</v>
+        <v>73.33551845867402</v>
       </c>
       <c r="J28" t="n">
         <v>146.3752252109404</v>
       </c>
       <c r="K28" t="n">
-        <v>345.0864199364776</v>
+        <v>345.0864199364773</v>
       </c>
       <c r="L28" t="n">
         <v>632.6580563704156</v>
       </c>
       <c r="M28" t="n">
-        <v>941.9287523503723</v>
+        <v>941.9287523503721</v>
       </c>
       <c r="N28" t="n">
-        <v>1251.170978444591</v>
+        <v>1251.17097844459</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.859928522165</v>
+        <v>1526.859928522164</v>
       </c>
       <c r="P28" t="n">
         <v>1750.714893707695</v>
       </c>
       <c r="Q28" t="n">
-        <v>1846.728202269456</v>
+        <v>1846.728202269455</v>
       </c>
       <c r="R28" t="n">
         <v>1804.545655162289</v>
       </c>
       <c r="S28" t="n">
-        <v>1681.012016906656</v>
+        <v>1681.012016906655</v>
       </c>
       <c r="T28" t="n">
         <v>1537.192884725149</v>
@@ -6421,13 +6421,13 @@
         <v>1155.623061220625</v>
       </c>
       <c r="W28" t="n">
-        <v>947.3349649963989</v>
+        <v>947.3349649963984</v>
       </c>
       <c r="X28" t="n">
-        <v>800.4744879111162</v>
+        <v>800.4744879111156</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.8109825803206</v>
+        <v>660.8109825803201</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1301.775849766165</v>
       </c>
       <c r="E29" t="n">
-        <v>997.1166709806557</v>
+        <v>997.1166709806556</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2598400037828</v>
+        <v>667.2598400037825</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6564442077361</v>
+        <v>331.6564442077358</v>
       </c>
       <c r="H29" t="n">
         <v>98.20124339823647</v>
@@ -6461,28 +6461,28 @@
         <v>73.335518458674</v>
       </c>
       <c r="J29" t="n">
-        <v>124.1263256173221</v>
+        <v>124.126325617322</v>
       </c>
       <c r="K29" t="n">
-        <v>571.8910560810535</v>
+        <v>571.8910560810533</v>
       </c>
       <c r="L29" t="n">
         <v>1179.659425829425</v>
       </c>
       <c r="M29" t="n">
-        <v>1587.444751867296</v>
+        <v>1872.525387075277</v>
       </c>
       <c r="N29" t="n">
-        <v>2276.890011189354</v>
+        <v>2561.970646397335</v>
       </c>
       <c r="O29" t="n">
-        <v>2882.725981370696</v>
+        <v>3167.806616578678</v>
       </c>
       <c r="P29" t="n">
-        <v>3362.118582502392</v>
+        <v>3594.185644793954</v>
       </c>
       <c r="Q29" t="n">
-        <v>3644.900701395444</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="R29" t="n">
         <v>3666.7759229337</v>
@@ -6494,19 +6494,19 @@
         <v>3467.671226008615</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.137021538884</v>
+        <v>3295.137021538883</v>
       </c>
       <c r="V29" t="n">
-        <v>3045.203208008048</v>
+        <v>3045.203208008047</v>
       </c>
       <c r="W29" t="n">
         <v>2773.563626550668</v>
       </c>
       <c r="X29" t="n">
-        <v>2481.226942102323</v>
+        <v>2481.226942102322</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.216683939246</v>
+        <v>2172.216683939245</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>978.1856323510852</v>
+        <v>978.1856323510855</v>
       </c>
       <c r="C30" t="n">
-        <v>803.7326030699583</v>
+        <v>803.7326030699585</v>
       </c>
       <c r="D30" t="n">
-        <v>654.798193408707</v>
+        <v>654.7981934087072</v>
       </c>
       <c r="E30" t="n">
-        <v>495.5607384032515</v>
+        <v>495.5607384032517</v>
       </c>
       <c r="F30" t="n">
-        <v>349.0261804301365</v>
+        <v>349.0261804301366</v>
       </c>
       <c r="G30" t="n">
-        <v>211.7748915521791</v>
+        <v>211.7748915521792</v>
       </c>
       <c r="H30" t="n">
         <v>112.6949641168569</v>
@@ -6540,28 +6540,28 @@
         <v>73.335518458674</v>
       </c>
       <c r="J30" t="n">
-        <v>209.5984532805141</v>
+        <v>209.598453280514</v>
       </c>
       <c r="K30" t="n">
-        <v>569.1143556467835</v>
+        <v>569.1143556467832</v>
       </c>
       <c r="L30" t="n">
         <v>1113.932249683069</v>
       </c>
       <c r="M30" t="n">
-        <v>1340.64024315131</v>
+        <v>1514.694947662264</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.757167531714</v>
+        <v>2236.360822642786</v>
       </c>
       <c r="O30" t="n">
-        <v>1916.950079230233</v>
+        <v>2440.204735042262</v>
       </c>
       <c r="P30" t="n">
-        <v>2376.497864837839</v>
+        <v>2584.47437969633</v>
       </c>
       <c r="Q30" t="n">
-        <v>2630.995620095732</v>
+        <v>2630.995620095733</v>
       </c>
       <c r="R30" t="n">
         <v>2621.687140000065</v>
@@ -6573,10 +6573,10 @@
         <v>2279.52851363497</v>
       </c>
       <c r="U30" t="n">
-        <v>2051.402233301584</v>
+        <v>2051.402233301585</v>
       </c>
       <c r="V30" t="n">
-        <v>1816.250125069841</v>
+        <v>1816.250125069842</v>
       </c>
       <c r="W30" t="n">
         <v>1562.01276834164</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.2915915628151</v>
+        <v>560.2915915628147</v>
       </c>
       <c r="C31" t="n">
-        <v>472.4844824476428</v>
+        <v>472.4844824476423</v>
       </c>
       <c r="D31" t="n">
-        <v>403.4969168480417</v>
+        <v>403.4969168480412</v>
       </c>
       <c r="E31" t="n">
-        <v>336.7128970783832</v>
+        <v>336.7128970783826</v>
       </c>
       <c r="F31" t="n">
-        <v>270.9520233932074</v>
+        <v>270.9520233932069</v>
       </c>
       <c r="G31" t="n">
-        <v>183.6336330019069</v>
+        <v>183.6336330019064</v>
       </c>
       <c r="H31" t="n">
         <v>111.9251039232139</v>
@@ -6619,34 +6619,34 @@
         <v>73.335518458674</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3752252109403</v>
+        <v>146.3752252109401</v>
       </c>
       <c r="K31" t="n">
-        <v>345.0864199364775</v>
+        <v>345.0864199364769</v>
       </c>
       <c r="L31" t="n">
-        <v>632.6580563704158</v>
+        <v>632.6580563704151</v>
       </c>
       <c r="M31" t="n">
-        <v>941.9287523503723</v>
+        <v>941.9287523503717</v>
       </c>
       <c r="N31" t="n">
-        <v>1251.170978444591</v>
+        <v>1251.17097844459</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.859928522165</v>
+        <v>1526.859928522164</v>
       </c>
       <c r="P31" t="n">
         <v>1750.714893707695</v>
       </c>
       <c r="Q31" t="n">
-        <v>1846.728202269456</v>
+        <v>1846.728202269455</v>
       </c>
       <c r="R31" t="n">
         <v>1804.545655162289</v>
       </c>
       <c r="S31" t="n">
-        <v>1681.012016906656</v>
+        <v>1681.012016906655</v>
       </c>
       <c r="T31" t="n">
         <v>1537.192884725149</v>
@@ -6658,13 +6658,13 @@
         <v>1155.623061220625</v>
       </c>
       <c r="W31" t="n">
-        <v>947.3349649963985</v>
+        <v>947.3349649963984</v>
       </c>
       <c r="X31" t="n">
-        <v>800.4744879111158</v>
+        <v>800.4744879111157</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.8109825803202</v>
+        <v>660.8109825803198</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1866.745917687858</v>
+        <v>1866.745917687859</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.912474560181</v>
+        <v>1578.912474560182</v>
       </c>
       <c r="D32" t="n">
         <v>1301.775849766165</v>
       </c>
       <c r="E32" t="n">
-        <v>997.116670980655</v>
+        <v>997.1166709806562</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2598400037821</v>
+        <v>667.2598400037832</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6564442077358</v>
+        <v>331.6564442077365</v>
       </c>
       <c r="H32" t="n">
         <v>98.2012433982365</v>
@@ -6698,28 +6698,28 @@
         <v>73.33551845867402</v>
       </c>
       <c r="J32" t="n">
-        <v>291.5319746376751</v>
+        <v>124.126325617322</v>
       </c>
       <c r="K32" t="n">
-        <v>739.2967051014066</v>
+        <v>518.8774831646352</v>
       </c>
       <c r="L32" t="n">
-        <v>933.5804724448324</v>
+        <v>1126.645852913007</v>
       </c>
       <c r="M32" t="n">
-        <v>1626.446433690685</v>
+        <v>1819.511814158859</v>
       </c>
       <c r="N32" t="n">
-        <v>2315.891693012743</v>
+        <v>2508.957073480917</v>
       </c>
       <c r="O32" t="n">
-        <v>2882.725981370697</v>
+        <v>3114.793043662259</v>
       </c>
       <c r="P32" t="n">
-        <v>3362.118582502392</v>
+        <v>3594.185644793954</v>
       </c>
       <c r="Q32" t="n">
-        <v>3644.900701395445</v>
+        <v>3666.775922933701</v>
       </c>
       <c r="R32" t="n">
         <v>3666.775922933701</v>
@@ -6731,19 +6731,19 @@
         <v>3467.671226008615</v>
       </c>
       <c r="U32" t="n">
-        <v>3295.137021538883</v>
+        <v>3295.137021538884</v>
       </c>
       <c r="V32" t="n">
-        <v>3045.203208008047</v>
+        <v>3045.203208008048</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.563626550667</v>
+        <v>2773.563626550668</v>
       </c>
       <c r="X32" t="n">
-        <v>2481.226942102322</v>
+        <v>2481.226942102323</v>
       </c>
       <c r="Y32" t="n">
-        <v>2172.216683939245</v>
+        <v>2172.216683939246</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>73.33551845867402</v>
       </c>
       <c r="J33" t="n">
-        <v>209.5984532805141</v>
+        <v>209.598453280514</v>
       </c>
       <c r="K33" t="n">
-        <v>569.1143556467835</v>
+        <v>307.2937710043305</v>
       </c>
       <c r="L33" t="n">
-        <v>1080.010439335532</v>
+        <v>852.1116650406163</v>
       </c>
       <c r="M33" t="n">
-        <v>1306.718432803773</v>
+        <v>1078.819658508857</v>
       </c>
       <c r="N33" t="n">
-        <v>2028.384307784295</v>
+        <v>1325.936582889261</v>
       </c>
       <c r="O33" t="n">
-        <v>2232.228220183771</v>
+        <v>1916.950079230233</v>
       </c>
       <c r="P33" t="n">
         <v>2376.49786483784</v>
@@ -6838,7 +6838,7 @@
         <v>472.4844824476427</v>
       </c>
       <c r="D34" t="n">
-        <v>403.4969168480416</v>
+        <v>403.4969168480415</v>
       </c>
       <c r="E34" t="n">
         <v>336.712897078383</v>
@@ -6856,34 +6856,34 @@
         <v>73.33551845867402</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3752252109405</v>
+        <v>146.3752252109404</v>
       </c>
       <c r="K34" t="n">
-        <v>345.0864199364775</v>
+        <v>345.0864199364776</v>
       </c>
       <c r="L34" t="n">
-        <v>632.6580563704158</v>
+        <v>632.6580563704156</v>
       </c>
       <c r="M34" t="n">
-        <v>941.9287523503724</v>
+        <v>941.9287523503722</v>
       </c>
       <c r="N34" t="n">
-        <v>1251.170978444591</v>
+        <v>1251.17097844459</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.859928522165</v>
+        <v>1526.859928522164</v>
       </c>
       <c r="P34" t="n">
         <v>1750.714893707695</v>
       </c>
       <c r="Q34" t="n">
-        <v>1846.728202269456</v>
+        <v>1846.728202269455</v>
       </c>
       <c r="R34" t="n">
         <v>1804.545655162289</v>
       </c>
       <c r="S34" t="n">
-        <v>1681.012016906656</v>
+        <v>1681.012016906655</v>
       </c>
       <c r="T34" t="n">
         <v>1537.192884725149</v>
@@ -6892,13 +6892,13 @@
         <v>1329.178475613777</v>
       </c>
       <c r="V34" t="n">
-        <v>1155.623061220625</v>
+        <v>1155.623061220624</v>
       </c>
       <c r="W34" t="n">
-        <v>947.334964996399</v>
+        <v>947.3349649963984</v>
       </c>
       <c r="X34" t="n">
-        <v>800.4744879111162</v>
+        <v>800.4744879111156</v>
       </c>
       <c r="Y34" t="n">
         <v>660.8109825803201</v>
@@ -6929,34 +6929,34 @@
         <v>331.6564442077361</v>
       </c>
       <c r="H35" t="n">
-        <v>98.20124339823647</v>
+        <v>98.2012433982365</v>
       </c>
       <c r="I35" t="n">
         <v>73.335518458674</v>
       </c>
       <c r="J35" t="n">
-        <v>291.5319746376751</v>
+        <v>291.531974637675</v>
       </c>
       <c r="K35" t="n">
-        <v>739.2967051014066</v>
+        <v>418.3927466559533</v>
       </c>
       <c r="L35" t="n">
-        <v>1347.065074849778</v>
+        <v>1026.161116404325</v>
       </c>
       <c r="M35" t="n">
-        <v>1594.912637937726</v>
+        <v>1719.027077650177</v>
       </c>
       <c r="N35" t="n">
-        <v>2276.890011189353</v>
+        <v>2408.472336972235</v>
       </c>
       <c r="O35" t="n">
-        <v>2882.725981370696</v>
+        <v>3014.308307153578</v>
       </c>
       <c r="P35" t="n">
-        <v>3362.118582502391</v>
+        <v>3383.993804040648</v>
       </c>
       <c r="Q35" t="n">
-        <v>3644.900701395444</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="R35" t="n">
         <v>3666.7759229337</v>
@@ -6965,22 +6965,22 @@
         <v>3599.78663497057</v>
       </c>
       <c r="T35" t="n">
-        <v>3467.671226008614</v>
+        <v>3467.671226008615</v>
       </c>
       <c r="U35" t="n">
-        <v>3295.137021538883</v>
+        <v>3295.137021538884</v>
       </c>
       <c r="V35" t="n">
-        <v>3045.203208008047</v>
+        <v>3045.203208008048</v>
       </c>
       <c r="W35" t="n">
-        <v>2773.563626550667</v>
+        <v>2773.563626550668</v>
       </c>
       <c r="X35" t="n">
-        <v>2481.226942102322</v>
+        <v>2481.226942102323</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.216683939245</v>
+        <v>2172.216683939246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>978.1856323510852</v>
+        <v>978.1856323510855</v>
       </c>
       <c r="C36" t="n">
-        <v>803.7326030699583</v>
+        <v>803.7326030699585</v>
       </c>
       <c r="D36" t="n">
-        <v>654.798193408707</v>
+        <v>654.7981934087072</v>
       </c>
       <c r="E36" t="n">
-        <v>495.5607384032515</v>
+        <v>495.5607384032517</v>
       </c>
       <c r="F36" t="n">
-        <v>349.0261804301365</v>
+        <v>349.0261804301366</v>
       </c>
       <c r="G36" t="n">
-        <v>211.7748915521791</v>
+        <v>211.7748915521792</v>
       </c>
       <c r="H36" t="n">
         <v>112.6949641168569</v>
@@ -7014,28 +7014,28 @@
         <v>73.335518458674</v>
       </c>
       <c r="J36" t="n">
-        <v>209.5984532805141</v>
+        <v>84.76832829350928</v>
       </c>
       <c r="K36" t="n">
-        <v>569.1143556467835</v>
+        <v>444.2842306597785</v>
       </c>
       <c r="L36" t="n">
-        <v>1113.932249683069</v>
+        <v>989.1021246960643</v>
       </c>
       <c r="M36" t="n">
-        <v>1340.64024315131</v>
+        <v>1676.858131276805</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.757167531714</v>
+        <v>1923.975055657209</v>
       </c>
       <c r="O36" t="n">
-        <v>1916.950079230233</v>
+        <v>2440.204735042262</v>
       </c>
       <c r="P36" t="n">
-        <v>2376.497864837839</v>
+        <v>2584.47437969633</v>
       </c>
       <c r="Q36" t="n">
-        <v>2630.995620095732</v>
+        <v>2630.995620095733</v>
       </c>
       <c r="R36" t="n">
         <v>2621.687140000065</v>
@@ -7047,10 +7047,10 @@
         <v>2279.52851363497</v>
       </c>
       <c r="U36" t="n">
-        <v>2051.402233301584</v>
+        <v>2051.402233301585</v>
       </c>
       <c r="V36" t="n">
-        <v>1816.250125069841</v>
+        <v>1816.250125069842</v>
       </c>
       <c r="W36" t="n">
         <v>1562.01276834164</v>
@@ -7072,16 +7072,16 @@
         <v>560.2915915628153</v>
       </c>
       <c r="C37" t="n">
-        <v>472.484482447643</v>
+        <v>472.4844824476429</v>
       </c>
       <c r="D37" t="n">
-        <v>403.4969168480418</v>
+        <v>403.4969168480417</v>
       </c>
       <c r="E37" t="n">
-        <v>336.7128970783833</v>
+        <v>336.7128970783832</v>
       </c>
       <c r="F37" t="n">
-        <v>270.9520233932075</v>
+        <v>270.9520233932074</v>
       </c>
       <c r="G37" t="n">
         <v>183.633633001907</v>
@@ -7102,7 +7102,7 @@
         <v>632.6580563704158</v>
       </c>
       <c r="M37" t="n">
-        <v>941.9287523503725</v>
+        <v>941.9287523503724</v>
       </c>
       <c r="N37" t="n">
         <v>1251.170978444591</v>
@@ -7114,13 +7114,13 @@
         <v>1750.714893707695</v>
       </c>
       <c r="Q37" t="n">
-        <v>1846.728202269456</v>
+        <v>1846.728202269455</v>
       </c>
       <c r="R37" t="n">
         <v>1804.545655162289</v>
       </c>
       <c r="S37" t="n">
-        <v>1681.012016906656</v>
+        <v>1681.012016906655</v>
       </c>
       <c r="T37" t="n">
         <v>1537.192884725149</v>
@@ -7157,19 +7157,19 @@
         <v>1301.775849766165</v>
       </c>
       <c r="E38" t="n">
-        <v>997.1166709806553</v>
+        <v>997.1166709806557</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2598400037823</v>
+        <v>667.2598400037828</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6564442077356</v>
+        <v>331.6564442077361</v>
       </c>
       <c r="H38" t="n">
-        <v>98.2012433982365</v>
+        <v>98.20124339823647</v>
       </c>
       <c r="I38" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J38" t="n">
         <v>291.5319746376751</v>
@@ -7181,40 +7181,40 @@
         <v>1347.065074849778</v>
       </c>
       <c r="M38" t="n">
-        <v>1594.912637937726</v>
+        <v>1609.319973405552</v>
       </c>
       <c r="N38" t="n">
-        <v>2284.357897259784</v>
+        <v>2298.76523272761</v>
       </c>
       <c r="O38" t="n">
-        <v>2890.193867441127</v>
+        <v>2904.601202908952</v>
       </c>
       <c r="P38" t="n">
-        <v>3362.118582502392</v>
+        <v>3383.993804040648</v>
       </c>
       <c r="Q38" t="n">
-        <v>3644.900701395445</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="R38" t="n">
-        <v>3666.775922933701</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.786634970571</v>
+        <v>3599.78663497057</v>
       </c>
       <c r="T38" t="n">
         <v>3467.671226008615</v>
       </c>
       <c r="U38" t="n">
-        <v>3295.137021538884</v>
+        <v>3295.137021538883</v>
       </c>
       <c r="V38" t="n">
-        <v>3045.203208008048</v>
+        <v>3045.203208008047</v>
       </c>
       <c r="W38" t="n">
-        <v>2773.563626550668</v>
+        <v>2773.563626550667</v>
       </c>
       <c r="X38" t="n">
-        <v>2481.226942102323</v>
+        <v>2481.226942102322</v>
       </c>
       <c r="Y38" t="n">
         <v>2172.216683939245</v>
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>978.1856323510855</v>
+        <v>978.1856323510852</v>
       </c>
       <c r="C39" t="n">
-        <v>803.7326030699585</v>
+        <v>803.7326030699583</v>
       </c>
       <c r="D39" t="n">
-        <v>654.7981934087072</v>
+        <v>654.798193408707</v>
       </c>
       <c r="E39" t="n">
-        <v>495.5607384032517</v>
+        <v>495.5607384032515</v>
       </c>
       <c r="F39" t="n">
-        <v>349.0261804301366</v>
+        <v>349.0261804301365</v>
       </c>
       <c r="G39" t="n">
-        <v>211.7748915521792</v>
+        <v>211.7748915521791</v>
       </c>
       <c r="H39" t="n">
         <v>112.6949641168569</v>
       </c>
       <c r="I39" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J39" t="n">
-        <v>209.5984532805141</v>
+        <v>84.76832829350934</v>
       </c>
       <c r="K39" t="n">
-        <v>569.1143556467835</v>
+        <v>441.3918566918164</v>
       </c>
       <c r="L39" t="n">
-        <v>1113.932249683069</v>
+        <v>986.2097507281022</v>
       </c>
       <c r="M39" t="n">
-        <v>1340.64024315131</v>
+        <v>1673.965757308843</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.757167531714</v>
+        <v>1921.082681689247</v>
       </c>
       <c r="O39" t="n">
-        <v>1916.950079230233</v>
+        <v>2124.926594088724</v>
       </c>
       <c r="P39" t="n">
-        <v>2376.49786483784</v>
+        <v>2584.47437969633</v>
       </c>
       <c r="Q39" t="n">
-        <v>2630.995620095733</v>
+        <v>2630.995620095732</v>
       </c>
       <c r="R39" t="n">
         <v>2621.687140000065</v>
@@ -7284,10 +7284,10 @@
         <v>2279.52851363497</v>
       </c>
       <c r="U39" t="n">
-        <v>2051.402233301585</v>
+        <v>2051.402233301584</v>
       </c>
       <c r="V39" t="n">
-        <v>1816.250125069842</v>
+        <v>1816.250125069841</v>
       </c>
       <c r="W39" t="n">
         <v>1562.01276834164</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.2915915628153</v>
+        <v>560.291591562815</v>
       </c>
       <c r="C40" t="n">
-        <v>472.484482447643</v>
+        <v>472.4844824476427</v>
       </c>
       <c r="D40" t="n">
-        <v>403.4969168480418</v>
+        <v>403.4969168480416</v>
       </c>
       <c r="E40" t="n">
-        <v>336.7128970783833</v>
+        <v>336.712897078383</v>
       </c>
       <c r="F40" t="n">
-        <v>270.9520233932075</v>
+        <v>270.9520233932072</v>
       </c>
       <c r="G40" t="n">
-        <v>183.633633001907</v>
+        <v>183.6336330019067</v>
       </c>
       <c r="H40" t="n">
-        <v>111.9251039232139</v>
+        <v>111.9251039232136</v>
       </c>
       <c r="I40" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J40" t="n">
-        <v>146.3752252109404</v>
+        <v>146.3752252109401</v>
       </c>
       <c r="K40" t="n">
-        <v>345.0864199364775</v>
+        <v>345.0864199364772</v>
       </c>
       <c r="L40" t="n">
-        <v>632.6580563704158</v>
+        <v>632.6580563704155</v>
       </c>
       <c r="M40" t="n">
-        <v>941.9287523503725</v>
+        <v>941.928752350372</v>
       </c>
       <c r="N40" t="n">
         <v>1251.170978444591</v>
@@ -7369,13 +7369,13 @@
         <v>1155.623061220625</v>
       </c>
       <c r="W40" t="n">
-        <v>947.3349649963986</v>
+        <v>947.334964996399</v>
       </c>
       <c r="X40" t="n">
-        <v>800.4744879111158</v>
+        <v>800.4744879111162</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.8109825803203</v>
+        <v>660.8109825803201</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>1866.745917687858</v>
       </c>
       <c r="C41" t="n">
-        <v>1578.912474560181</v>
+        <v>1578.91247456018</v>
       </c>
       <c r="D41" t="n">
-        <v>1301.775849766165</v>
+        <v>1301.775849766164</v>
       </c>
       <c r="E41" t="n">
-        <v>997.1166709806557</v>
+        <v>997.1166709806548</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2598400037828</v>
+        <v>667.2598400037821</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6564442077361</v>
+        <v>331.6564442077354</v>
       </c>
       <c r="H41" t="n">
         <v>98.2012433982365</v>
       </c>
       <c r="I41" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J41" t="n">
-        <v>291.5319746376751</v>
+        <v>291.531974637675</v>
       </c>
       <c r="K41" t="n">
-        <v>739.2967051014066</v>
+        <v>739.2967051014064</v>
       </c>
       <c r="L41" t="n">
         <v>1347.065074849778</v>
       </c>
       <c r="M41" t="n">
-        <v>1594.912637937726</v>
+        <v>1986.312152855671</v>
       </c>
       <c r="N41" t="n">
-        <v>2284.357897259784</v>
+        <v>2675.757412177728</v>
       </c>
       <c r="O41" t="n">
-        <v>2890.193867441127</v>
+        <v>2904.601202908953</v>
       </c>
       <c r="P41" t="n">
-        <v>3369.586468572822</v>
+        <v>3383.993804040648</v>
       </c>
       <c r="Q41" t="n">
-        <v>3652.368587465875</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="R41" t="n">
-        <v>3666.775922933701</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="S41" t="n">
         <v>3599.78663497057</v>
@@ -7442,19 +7442,19 @@
         <v>3467.671226008615</v>
       </c>
       <c r="U41" t="n">
-        <v>3295.137021538884</v>
+        <v>3295.137021538883</v>
       </c>
       <c r="V41" t="n">
-        <v>3045.203208008048</v>
+        <v>3045.203208008047</v>
       </c>
       <c r="W41" t="n">
-        <v>2773.563626550668</v>
+        <v>2773.563626550667</v>
       </c>
       <c r="X41" t="n">
-        <v>2481.226942102323</v>
+        <v>2481.226942102322</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.216683939246</v>
+        <v>2172.216683939245</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.6949641168569</v>
       </c>
       <c r="I42" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J42" t="n">
-        <v>209.5984532805141</v>
+        <v>84.76832829350928</v>
       </c>
       <c r="K42" t="n">
-        <v>569.1143556467835</v>
+        <v>366.7463015613928</v>
       </c>
       <c r="L42" t="n">
-        <v>1113.932249683069</v>
+        <v>911.5641955976786</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.989242450353</v>
+        <v>1599.32020217842</v>
       </c>
       <c r="N42" t="n">
-        <v>1713.106166830757</v>
+        <v>1846.437126558824</v>
       </c>
       <c r="O42" t="n">
-        <v>1916.950079230233</v>
+        <v>2440.204735042262</v>
       </c>
       <c r="P42" t="n">
-        <v>2376.49786483784</v>
+        <v>2584.47437969633</v>
       </c>
       <c r="Q42" t="n">
         <v>2630.995620095733</v>
@@ -7564,7 +7564,7 @@
         <v>111.9251039232139</v>
       </c>
       <c r="I43" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J43" t="n">
         <v>146.3752252109404</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1866.745917687857</v>
+        <v>1866.745917687858</v>
       </c>
       <c r="C44" t="n">
         <v>1578.91247456018</v>
@@ -7631,7 +7631,7 @@
         <v>1301.775849766165</v>
       </c>
       <c r="E44" t="n">
-        <v>997.1166709806548</v>
+        <v>997.1166709806553</v>
       </c>
       <c r="F44" t="n">
         <v>667.2598400037825</v>
@@ -7640,43 +7640,43 @@
         <v>331.6564442077358</v>
       </c>
       <c r="H44" t="n">
-        <v>98.2012433982365</v>
+        <v>98.20124339823647</v>
       </c>
       <c r="I44" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1263256173221</v>
+        <v>291.531974637675</v>
       </c>
       <c r="K44" t="n">
-        <v>571.8910560810535</v>
+        <v>739.2967051014064</v>
       </c>
       <c r="L44" t="n">
-        <v>1179.659425829425</v>
+        <v>1347.065074849778</v>
       </c>
       <c r="M44" t="n">
-        <v>1872.525387075278</v>
+        <v>1609.319973405552</v>
       </c>
       <c r="N44" t="n">
-        <v>2561.970646397336</v>
+        <v>2298.76523272761</v>
       </c>
       <c r="O44" t="n">
-        <v>3167.806616578679</v>
+        <v>2904.601202908953</v>
       </c>
       <c r="P44" t="n">
-        <v>3572.310423255698</v>
+        <v>3383.993804040648</v>
       </c>
       <c r="Q44" t="n">
-        <v>3644.900701395445</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="R44" t="n">
-        <v>3666.775922933701</v>
+        <v>3666.7759229337</v>
       </c>
       <c r="S44" t="n">
-        <v>3599.786634970571</v>
+        <v>3599.78663497057</v>
       </c>
       <c r="T44" t="n">
-        <v>3467.671226008615</v>
+        <v>3467.671226008614</v>
       </c>
       <c r="U44" t="n">
         <v>3295.137021538883</v>
@@ -7722,28 +7722,28 @@
         <v>112.6949641168569</v>
       </c>
       <c r="I45" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J45" t="n">
-        <v>209.5984532805141</v>
+        <v>84.76832829350928</v>
       </c>
       <c r="K45" t="n">
-        <v>569.1143556467835</v>
+        <v>444.2842306597785</v>
       </c>
       <c r="L45" t="n">
-        <v>1113.932249683069</v>
+        <v>989.1021246960643</v>
       </c>
       <c r="M45" t="n">
-        <v>1340.64024315131</v>
+        <v>1284.042061224882</v>
       </c>
       <c r="N45" t="n">
-        <v>1587.757167531714</v>
+        <v>1531.158985605286</v>
       </c>
       <c r="O45" t="n">
-        <v>1916.950079230233</v>
+        <v>2124.926594088724</v>
       </c>
       <c r="P45" t="n">
-        <v>2376.49786483784</v>
+        <v>2584.47437969633</v>
       </c>
       <c r="Q45" t="n">
         <v>2630.995620095733</v>
@@ -7783,16 +7783,16 @@
         <v>560.2915915628153</v>
       </c>
       <c r="C46" t="n">
-        <v>472.484482447643</v>
+        <v>472.4844824476429</v>
       </c>
       <c r="D46" t="n">
-        <v>403.4969168480418</v>
+        <v>403.4969168480417</v>
       </c>
       <c r="E46" t="n">
-        <v>336.7128970783833</v>
+        <v>336.7128970783832</v>
       </c>
       <c r="F46" t="n">
-        <v>270.9520233932075</v>
+        <v>270.9520233932074</v>
       </c>
       <c r="G46" t="n">
         <v>183.633633001907</v>
@@ -7801,7 +7801,7 @@
         <v>111.9251039232139</v>
       </c>
       <c r="I46" t="n">
-        <v>73.33551845867402</v>
+        <v>73.335518458674</v>
       </c>
       <c r="J46" t="n">
         <v>146.3752252109404</v>
@@ -7819,19 +7819,19 @@
         <v>1251.170978444591</v>
       </c>
       <c r="O46" t="n">
-        <v>1526.859928522165</v>
+        <v>1526.859928522164</v>
       </c>
       <c r="P46" t="n">
         <v>1750.714893707695</v>
       </c>
       <c r="Q46" t="n">
-        <v>1846.728202269456</v>
+        <v>1846.728202269455</v>
       </c>
       <c r="R46" t="n">
         <v>1804.545655162289</v>
       </c>
       <c r="S46" t="n">
-        <v>1681.012016906656</v>
+        <v>1681.012016906655</v>
       </c>
       <c r="T46" t="n">
         <v>1537.192884725149</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>296.0053240255916</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>52.95756791766681</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>293.9170331699841</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>346.2946098335051</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>125.3675021311776</v>
       </c>
       <c r="O14" t="n">
-        <v>373.2150693668068</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.62023650100659</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>126.6151508071143</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>126.6151508071133</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>279.6992673875213</v>
+        <v>147.4636855031534</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>43.62023650100659</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.21560017032203</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>126.6151508071133</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>112.7658001903947</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>393.4018832035273</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>182.0222708227581</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>126.6151508071133</v>
+        <v>423.4663384418633</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>73.98915766870999</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.21746024000169</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>181.3142861842637</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>420.7521527175755</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>43.62023650100659</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>126.615150807113</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>126.6151508071137</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>14.55286410891651</v>
       </c>
       <c r="N26" t="n">
-        <v>429.8036051489227</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>126.6151508071133</v>
+        <v>28.44438543683171</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>161.5532959090122</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>268.2496446195441</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>175.8128328393472</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>126.6151508071133</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>270.5963490192273</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>341.4045430573026</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>336.5758904069568</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>391.080387819693</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>429.8036051489223</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>210.9834513587304</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>126.6151508071133</v>
+        <v>315.5411787733096</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>14.55286410891424</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>314.2553889084219</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>43.62023650100659</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.54364714595</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>126.6151508071138</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>395.3530453716614</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>58.1731006099215</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>186.1440965091586</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>126.6151508071137</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>14.5528641089156</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>246.1534612475677</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>43.62023650100664</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>68.92115460664297</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>126.6151508071138</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>316.4144465799816</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>315.6109749887628</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>340.5566506582124</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>33.07371806325046</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.61545568127507</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.31778307460719</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>144.792642863444</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>184.8072504161422</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>282.921573633914</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>303.41170559497</v>
+        <v>91.05048851685302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>319.9185435725546</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>84.98983177901435</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.75910962720316</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>136.2966898641854</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>174.3425081128746</v>
+        <v>56.68713714800994</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>159.3902603055382</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>316.4144465799816</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>298.9534966875086</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>288.363646537184</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>340.5566506582124</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>186.8740870080938</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>144.792642863444</v>
       </c>
       <c r="U14" t="n">
-        <v>184.8072504161422</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>73.70142844932127</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>319.9185435725546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.05674970342729</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>136.2966898641854</v>
       </c>
       <c r="T16" t="n">
-        <v>156.3793288507996</v>
+        <v>156.3793288507995</v>
       </c>
       <c r="U16" t="n">
-        <v>17.96317926207524</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>159.3902603055382</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>72.33390095043666</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.33390095043546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>72.33390095043571</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>72.33390095043555</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1135627.896394092</v>
+        <v>1135627.896394093</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1160527.773468736</v>
+        <v>1160527.773468737</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184337.1762113337</v>
+        <v>184337.1762113336</v>
       </c>
       <c r="C2" t="n">
-        <v>184337.1762113337</v>
+        <v>184337.1762113336</v>
       </c>
       <c r="D2" t="n">
-        <v>184337.1762113337</v>
+        <v>184337.1762113336</v>
       </c>
       <c r="E2" t="n">
         <v>158152.8409916982</v>
@@ -26326,7 +26326,7 @@
         <v>160806.2573646033</v>
       </c>
       <c r="G2" t="n">
-        <v>183438.8980534414</v>
+        <v>183438.8980534413</v>
       </c>
       <c r="H2" t="n">
         <v>183438.8980534413</v>
@@ -26341,19 +26341,19 @@
         <v>184734.3982194637</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194637</v>
       </c>
-      <c r="M2" t="n">
-        <v>184734.3982194638</v>
-      </c>
       <c r="N2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>783566.8302825359</v>
+        <v>783566.8302825356</v>
       </c>
       <c r="F3" t="n">
-        <v>10938.36960724715</v>
+        <v>10938.36960724711</v>
       </c>
       <c r="G3" t="n">
-        <v>64254.22645968578</v>
+        <v>64254.22645968576</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>4956.47888956934</v>
       </c>
       <c r="J3" t="n">
-        <v>64257.34728919403</v>
+        <v>64257.34728919406</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>64254.22645968576</v>
+        <v>64254.22645968574</v>
       </c>
       <c r="M3" t="n">
-        <v>153083.1452652063</v>
+        <v>153083.1452652064</v>
       </c>
       <c r="N3" t="n">
-        <v>9350.293002360128</v>
+        <v>9350.293002360044</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>134793.7139903026</v>
+        <v>134793.7139903027</v>
       </c>
       <c r="F4" t="n">
-        <v>138151.6119587102</v>
+        <v>138151.6119587103</v>
       </c>
       <c r="G4" t="n">
         <v>195403.0846721517</v>
@@ -26442,13 +26442,13 @@
         <v>183652.8899592361</v>
       </c>
       <c r="K4" t="n">
-        <v>183652.8899592361</v>
+        <v>183652.8899592362</v>
       </c>
       <c r="L4" t="n">
-        <v>183652.8899592361</v>
+        <v>183652.8899592362</v>
       </c>
       <c r="M4" t="n">
-        <v>183652.8899592361</v>
+        <v>183652.8899592362</v>
       </c>
       <c r="N4" t="n">
         <v>183652.8899592361</v>
@@ -26457,7 +26457,7 @@
         <v>183652.8899592361</v>
       </c>
       <c r="P4" t="n">
-        <v>183652.8899592361</v>
+        <v>183652.8899592362</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>60090.51565800524</v>
       </c>
       <c r="G5" t="n">
-        <v>66842.7513633044</v>
+        <v>66842.75136330439</v>
       </c>
       <c r="H5" t="n">
-        <v>66842.7513633044</v>
+        <v>66842.75136330439</v>
       </c>
       <c r="I5" t="n">
-        <v>67975.99738932647</v>
+        <v>67975.99738932645</v>
       </c>
       <c r="J5" t="n">
         <v>77332.51001878188</v>
@@ -26500,7 +26500,7 @@
         <v>77332.51001878188</v>
       </c>
       <c r="M5" t="n">
-        <v>77332.51001878186</v>
+        <v>77332.51001878188</v>
       </c>
       <c r="N5" t="n">
         <v>77332.51001878188</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274813.5629547698</v>
+        <v>-274817.9765326381</v>
       </c>
       <c r="C6" t="n">
-        <v>-274813.5629547699</v>
+        <v>-274817.9765326381</v>
       </c>
       <c r="D6" t="n">
-        <v>-274813.5629547698</v>
+        <v>-274817.976532638</v>
       </c>
       <c r="E6" t="n">
-        <v>-817977.1281057808</v>
+        <v>-818272.4787416449</v>
       </c>
       <c r="F6" t="n">
-        <v>-48374.23985935927</v>
+        <v>-48640.10809107996</v>
       </c>
       <c r="G6" t="n">
-        <v>-143061.1644417004</v>
+        <v>-143075.5588879897</v>
       </c>
       <c r="H6" t="n">
-        <v>-78806.93798201474</v>
+        <v>-78821.33242830393</v>
       </c>
       <c r="I6" t="n">
-        <v>-85812.98153695474</v>
+        <v>-85812.98153695473</v>
       </c>
       <c r="J6" t="n">
-        <v>-140508.3490477483</v>
+        <v>-140508.3490477484</v>
       </c>
       <c r="K6" t="n">
-        <v>-76251.00175855431</v>
+        <v>-76251.0017585544</v>
       </c>
       <c r="L6" t="n">
-        <v>-140505.2282182401</v>
+        <v>-140505.22821824</v>
       </c>
       <c r="M6" t="n">
-        <v>-229334.1470237605</v>
+        <v>-229334.1470237607</v>
       </c>
       <c r="N6" t="n">
-        <v>-85601.29476091426</v>
+        <v>-85601.29476091429</v>
       </c>
       <c r="O6" t="n">
-        <v>-76251.00175855419</v>
+        <v>-76251.00175855425</v>
       </c>
       <c r="P6" t="n">
-        <v>-76251.00175855416</v>
+        <v>-76251.00175855443</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="F2" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="G2" t="n">
         <v>146.6371781581062</v>
@@ -26707,16 +26707,16 @@
         <v>146.6371781581062</v>
       </c>
       <c r="J2" t="n">
+        <v>80.31778307460721</v>
+      </c>
+      <c r="K2" t="n">
+        <v>80.31778307460723</v>
+      </c>
+      <c r="L2" t="n">
         <v>80.31778307460722</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>80.31778307460722</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.31778307460721</v>
-      </c>
-      <c r="M2" t="n">
-        <v>80.31778307460721</v>
       </c>
       <c r="N2" t="n">
         <v>80.31778307460721</v>
@@ -26725,7 +26725,7 @@
         <v>80.31778307460721</v>
       </c>
       <c r="P2" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="F3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="G3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="H3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="I3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="J3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="K3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="L3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="M3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="N3" t="n">
         <v>680.9761598573613</v>
       </c>
       <c r="O3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="P3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>614.288475567031</v>
+        <v>614.2884755670311</v>
       </c>
       <c r="F4" t="n">
         <v>652.4643116421067</v>
@@ -26811,7 +26811,7 @@
         <v>671.1032265437856</v>
       </c>
       <c r="J4" t="n">
-        <v>916.6939807334251</v>
+        <v>916.6939807334252</v>
       </c>
       <c r="K4" t="n">
         <v>916.6939807334251</v>
@@ -26820,16 +26820,16 @@
         <v>916.6939807334252</v>
       </c>
       <c r="M4" t="n">
-        <v>916.693980733425</v>
+        <v>916.6939807334251</v>
       </c>
       <c r="N4" t="n">
-        <v>916.6939807334252</v>
+        <v>916.6939807334251</v>
       </c>
       <c r="O4" t="n">
-        <v>916.6939807334252</v>
+        <v>916.6939807334251</v>
       </c>
       <c r="P4" t="n">
-        <v>916.6939807334252</v>
+        <v>916.6939807334251</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460718</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.9761598573613</v>
+        <v>680.976159857361</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>614.288475567031</v>
+        <v>614.2884755670311</v>
       </c>
       <c r="F4" t="n">
-        <v>38.17583607507572</v>
+        <v>38.17583607507561</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>18.63891490167885</v>
       </c>
       <c r="J4" t="n">
-        <v>245.5907541896395</v>
+        <v>245.5907541896396</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>614.2884755670308</v>
+        <v>614.288475567031</v>
       </c>
       <c r="N4" t="n">
-        <v>38.17583607507595</v>
+        <v>38.17583607507561</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460719</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>614.288475567031</v>
+        <v>614.2884755670311</v>
       </c>
       <c r="N4" t="n">
-        <v>38.17583607507572</v>
+        <v>38.17583607507561</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="C11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="D11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="E11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="F11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="G11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="H11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="I11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="T11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="U11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="V11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="W11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="X11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
     </row>
     <row r="12">
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.51399447315569</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>66.31939508349897</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>42.86753835505316</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.96585120160107</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="C13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="D13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="E13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="F13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="G13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="H13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="I13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="J13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="K13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="L13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="M13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="N13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="O13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="P13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="R13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="S13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="T13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="U13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="V13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="W13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="X13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="C14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="D14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="E14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="F14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="G14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="H14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="I14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="T14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="U14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="V14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="W14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="X14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="Y14" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="C16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="D16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="E16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="F16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="G16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="H16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="I16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="J16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="K16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="L16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="M16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="N16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="O16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="P16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="R16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="S16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="T16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="U16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="V16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="W16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="X16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.31939508349897</v>
+        <v>66.319395083499</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>118.5214726845017</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.540301506661365</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,22 +28767,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.0785047107021</v>
+        <v>122.0785047107022</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>56.24046173075675</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>146.6371781581062</v>
       </c>
       <c r="U19" t="n">
-        <v>62.780763237418</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>146.6371781581062</v>
       </c>
       <c r="W19" t="n">
-        <v>146.6371781581062</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>146.6371781581062</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>146.6371781581062</v>
@@ -28980,7 +28980,7 @@
         <v>118.5214726845017</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.540301506661365</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,22 +29004,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.0785047107021</v>
+        <v>122.0785047107022</v>
       </c>
       <c r="S22" t="n">
         <v>146.6371781581062</v>
       </c>
       <c r="T22" t="n">
-        <v>146.6371781581062</v>
+        <v>55.024331595582</v>
       </c>
       <c r="U22" t="n">
         <v>146.6371781581062</v>
       </c>
       <c r="V22" t="n">
-        <v>62.78076323741806</v>
+        <v>146.6371781581062</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>146.6371781581062</v>
       </c>
       <c r="X22" t="n">
         <v>146.6371781581062</v>
@@ -29205,13 +29205,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>61.56463310224296</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>146.6371781581062</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.6371781581062</v>
       </c>
       <c r="I25" t="n">
         <v>118.5214726845017</v>
@@ -29241,16 +29241,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.0785047107021</v>
+        <v>122.0785047107022</v>
       </c>
       <c r="S25" t="n">
         <v>146.6371781581062</v>
       </c>
       <c r="T25" t="n">
-        <v>146.6371781581062</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.6371781581062</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>146.6371781581062</v>
@@ -29259,7 +29259,7 @@
         <v>146.6371781581062</v>
       </c>
       <c r="X25" t="n">
-        <v>146.6371781581062</v>
+        <v>62.78076323741831</v>
       </c>
       <c r="Y25" t="n">
         <v>146.6371781581062</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="C26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="D26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="E26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="F26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="G26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="H26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="I26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="T26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="U26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="V26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="W26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="X26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="C28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="D28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="E28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="F28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="G28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="H28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="I28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="J28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="K28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="L28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="M28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="N28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="O28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="P28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="R28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="S28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="T28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="U28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="V28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="W28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="X28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460721</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="C29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="D29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="E29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="F29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="G29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="H29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="I29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="T29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="U29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="V29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="W29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="X29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="C31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="D31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="E31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="F31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="G31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="H31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="I31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="J31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="K31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="L31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="M31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="N31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="O31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="P31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="R31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="S31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="T31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="U31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="V31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="W31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="X31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.31778307460722</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="C32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="D32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="E32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="F32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="G32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="H32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="I32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="T32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="U32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="V32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="W32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="X32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="C34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="E34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="F34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="G34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="H34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="I34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="J34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="K34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="L34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="M34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="N34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="O34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="P34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="R34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="S34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="T34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="U34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="V34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="W34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="X34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="C35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="D35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="E35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="F35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="G35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="H35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="I35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="T35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="U35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="V35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="W35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="X35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="C37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="E37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="F37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="G37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="H37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="I37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="J37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="K37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="L37" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="M37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="N37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="O37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="P37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460698</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="R37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="S37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="T37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="U37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="V37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="W37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="X37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460722</v>
       </c>
     </row>
     <row r="38">
@@ -30405,7 +30405,7 @@
         <v>80.31778307460721</v>
       </c>
       <c r="K40" t="n">
-        <v>80.31778307460715</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="L40" t="n">
         <v>80.31778307460721</v>
@@ -30639,7 +30639,7 @@
         <v>80.31778307460721</v>
       </c>
       <c r="J43" t="n">
-        <v>80.31778307460714</v>
+        <v>80.31778307460721</v>
       </c>
       <c r="K43" t="n">
         <v>80.31778307460721</v>
@@ -30648,7 +30648,7 @@
         <v>80.31778307460721</v>
       </c>
       <c r="M43" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460735</v>
       </c>
       <c r="N43" t="n">
         <v>80.31778307460721</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="C44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="D44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="E44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="F44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="G44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="H44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="I44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="T44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="U44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="V44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="W44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="X44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="C46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="D46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="E46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="F46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="G46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="H46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="I46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="J46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="K46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="L46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="M46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="N46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="O46" t="n">
-        <v>80.31778307460735</v>
+        <v>80.31778307460695</v>
       </c>
       <c r="P46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="R46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="S46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="T46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="U46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="V46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="W46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="X46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.31778307460721</v>
+        <v>80.31778307460723</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H11" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I11" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J11" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K11" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L11" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M11" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N11" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O11" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P11" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R11" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S11" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T11" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H12" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I12" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J12" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K12" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L12" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M12" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N12" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O12" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P12" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R12" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S12" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T12" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H13" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I13" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J13" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K13" t="n">
         <v>142.6700872619192</v>
@@ -31926,7 +31926,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M13" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N13" t="n">
         <v>187.9159294898191</v>
@@ -31935,22 +31935,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P13" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q13" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R13" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S13" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T13" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H14" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I14" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J14" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K14" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L14" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M14" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N14" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O14" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P14" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q14" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R14" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S14" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T14" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H15" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I15" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J15" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K15" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L15" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M15" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N15" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O15" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P15" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q15" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R15" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S15" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T15" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H16" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I16" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J16" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K16" t="n">
         <v>142.6700872619192</v>
@@ -32163,7 +32163,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M16" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N16" t="n">
         <v>187.9159294898191</v>
@@ -32172,22 +32172,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P16" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q16" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R16" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S16" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T16" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H17" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I17" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J17" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K17" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L17" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M17" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N17" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O17" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P17" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R17" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S17" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T17" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H18" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I18" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J18" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K18" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L18" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M18" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N18" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O18" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P18" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R18" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S18" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T18" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H19" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I19" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J19" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K19" t="n">
         <v>142.6700872619192</v>
@@ -32400,7 +32400,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M19" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N19" t="n">
         <v>187.9159294898191</v>
@@ -32409,22 +32409,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P19" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q19" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R19" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S19" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T19" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H20" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I20" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J20" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K20" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L20" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M20" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N20" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O20" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P20" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R20" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S20" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T20" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H21" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I21" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J21" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K21" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L21" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M21" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N21" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O21" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P21" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R21" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S21" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T21" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H22" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I22" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J22" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K22" t="n">
         <v>142.6700872619192</v>
@@ -32637,7 +32637,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M22" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N22" t="n">
         <v>187.9159294898191</v>
@@ -32646,22 +32646,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P22" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q22" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R22" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S22" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T22" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H23" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I23" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J23" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K23" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L23" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M23" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N23" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O23" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P23" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q23" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R23" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S23" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T23" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H24" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I24" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J24" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K24" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L24" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M24" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N24" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O24" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P24" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R24" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S24" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T24" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H25" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I25" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J25" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K25" t="n">
         <v>142.6700872619192</v>
@@ -32874,7 +32874,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M25" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N25" t="n">
         <v>187.9159294898191</v>
@@ -32883,22 +32883,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P25" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q25" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R25" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S25" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T25" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H26" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I26" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J26" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K26" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L26" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M26" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N26" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O26" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P26" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q26" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R26" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S26" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T26" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H27" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I27" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J27" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K27" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L27" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M27" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N27" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O27" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P27" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R27" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S27" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T27" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H28" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I28" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J28" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K28" t="n">
         <v>142.6700872619192</v>
@@ -33111,7 +33111,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M28" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N28" t="n">
         <v>187.9159294898191</v>
@@ -33120,22 +33120,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P28" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q28" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R28" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S28" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T28" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H29" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I29" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J29" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K29" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L29" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M29" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N29" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O29" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P29" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q29" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R29" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S29" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T29" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H30" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I30" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J30" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K30" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L30" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M30" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N30" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O30" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P30" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R30" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S30" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T30" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H31" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I31" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J31" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K31" t="n">
         <v>142.6700872619192</v>
@@ -33348,7 +33348,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M31" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N31" t="n">
         <v>187.9159294898191</v>
@@ -33357,22 +33357,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P31" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q31" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R31" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S31" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T31" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H32" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I32" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K32" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L32" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M32" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N32" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O32" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P32" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q32" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R32" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S32" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T32" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H33" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I33" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J33" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K33" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L33" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M33" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N33" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O33" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P33" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R33" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S33" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T33" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,13 +33570,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H34" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I34" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J34" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K34" t="n">
         <v>142.6700872619192</v>
@@ -33585,7 +33585,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M34" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N34" t="n">
         <v>187.9159294898191</v>
@@ -33594,22 +33594,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P34" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q34" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R34" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S34" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T34" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H35" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I35" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J35" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K35" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L35" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M35" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N35" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O35" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P35" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R35" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S35" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T35" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H36" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I36" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J36" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K36" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L36" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M36" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N36" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O36" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P36" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R36" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S36" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T36" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H37" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I37" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J37" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K37" t="n">
         <v>142.6700872619192</v>
@@ -33822,7 +33822,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M37" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N37" t="n">
         <v>187.9159294898191</v>
@@ -33831,22 +33831,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P37" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q37" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R37" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S37" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T37" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H41" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I41" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J41" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K41" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L41" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M41" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N41" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O41" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P41" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R41" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S41" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T41" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H42" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I42" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J42" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K42" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L42" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M42" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N42" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O42" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P42" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R42" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S42" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T42" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H43" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I43" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J43" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K43" t="n">
         <v>142.6700872619192</v>
@@ -34296,7 +34296,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M43" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N43" t="n">
         <v>187.9159294898191</v>
@@ -34305,22 +34305,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P43" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q43" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R43" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S43" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T43" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.737592602441651</v>
+        <v>2.73759260244165</v>
       </c>
       <c r="H44" t="n">
-        <v>28.03637023975557</v>
+        <v>28.03637023975556</v>
       </c>
       <c r="I44" t="n">
-        <v>105.5410388056319</v>
+        <v>105.5410388056318</v>
       </c>
       <c r="J44" t="n">
-        <v>232.3497501414823</v>
+        <v>232.3497501414822</v>
       </c>
       <c r="K44" t="n">
-        <v>348.2320450028375</v>
+        <v>348.2320450028374</v>
       </c>
       <c r="L44" t="n">
-        <v>432.0126446098113</v>
+        <v>432.0126446098111</v>
       </c>
       <c r="M44" t="n">
-        <v>480.697307053483</v>
+        <v>480.6973070534828</v>
       </c>
       <c r="N44" t="n">
-        <v>488.4754920351703</v>
+        <v>488.4754920351702</v>
       </c>
       <c r="O44" t="n">
-        <v>461.2535555946411</v>
+        <v>461.253555594641</v>
       </c>
       <c r="P44" t="n">
-        <v>393.6692382218628</v>
+        <v>393.6692382218627</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.6292031469211</v>
+        <v>295.629203146921</v>
       </c>
       <c r="R44" t="n">
         <v>171.9653013131255</v>
       </c>
       <c r="S44" t="n">
-        <v>62.38289142813919</v>
+        <v>62.38289142813917</v>
       </c>
       <c r="T44" t="n">
-        <v>11.98381161718834</v>
+        <v>11.98381161718833</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2190074081953321</v>
+        <v>0.219007408195332</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.464741174032815</v>
+        <v>1.464741174032814</v>
       </c>
       <c r="H45" t="n">
         <v>14.14631607552745</v>
       </c>
       <c r="I45" t="n">
-        <v>50.43078164981402</v>
+        <v>50.43078164981401</v>
       </c>
       <c r="J45" t="n">
         <v>138.3859194291266</v>
       </c>
       <c r="K45" t="n">
-        <v>236.5235780893252</v>
+        <v>236.5235780893251</v>
       </c>
       <c r="L45" t="n">
-        <v>318.0351395635724</v>
+        <v>318.0351395635723</v>
       </c>
       <c r="M45" t="n">
-        <v>371.1320071222618</v>
+        <v>371.1320071222617</v>
       </c>
       <c r="N45" t="n">
-        <v>380.9547670130346</v>
+        <v>380.9547670130345</v>
       </c>
       <c r="O45" t="n">
-        <v>348.4991862620969</v>
+        <v>348.4991862620968</v>
       </c>
       <c r="P45" t="n">
         <v>279.7013212063188</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.9729260046099</v>
+        <v>186.9729260046098</v>
       </c>
       <c r="R45" t="n">
-        <v>90.94243885793217</v>
+        <v>90.94243885793215</v>
       </c>
       <c r="S45" t="n">
-        <v>27.20692487732003</v>
+        <v>27.20692487732002</v>
       </c>
       <c r="T45" t="n">
-        <v>5.903934819895422</v>
+        <v>5.90393481989542</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09636455092321154</v>
+        <v>0.09636455092321151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.227989796464094</v>
       </c>
       <c r="H46" t="n">
-        <v>10.91794564492623</v>
+        <v>10.91794564492622</v>
       </c>
       <c r="I46" t="n">
-        <v>36.92900224275658</v>
+        <v>36.92900224275657</v>
       </c>
       <c r="J46" t="n">
-        <v>86.81887861001144</v>
+        <v>86.81887861001141</v>
       </c>
       <c r="K46" t="n">
         <v>142.6700872619192</v>
@@ -34533,7 +34533,7 @@
         <v>182.5685921033981</v>
       </c>
       <c r="M46" t="n">
-        <v>192.4929823675488</v>
+        <v>192.4929823675487</v>
       </c>
       <c r="N46" t="n">
         <v>187.9159294898191</v>
@@ -34542,22 +34542,22 @@
         <v>173.5707759583976</v>
       </c>
       <c r="P46" t="n">
-        <v>148.51978411053</v>
+        <v>148.5197841105299</v>
       </c>
       <c r="Q46" t="n">
         <v>102.8274001384615</v>
       </c>
       <c r="R46" t="n">
-        <v>55.21488666646734</v>
+        <v>55.21488666646732</v>
       </c>
       <c r="S46" t="n">
         <v>21.40051308928788</v>
       </c>
       <c r="T46" t="n">
-        <v>5.246865493982946</v>
+        <v>5.246865493982944</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06698126162531429</v>
+        <v>0.06698126162531427</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.4004607868698</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K11" t="n">
-        <v>424.1475179834485</v>
+        <v>452.2876065290216</v>
       </c>
       <c r="L11" t="n">
-        <v>196.246229639824</v>
+        <v>196.2462296398239</v>
       </c>
       <c r="M11" t="n">
-        <v>250.3510738262102</v>
+        <v>250.3510738262101</v>
       </c>
       <c r="N11" t="n">
-        <v>259.0624284385794</v>
+        <v>259.0624284385793</v>
       </c>
       <c r="O11" t="n">
-        <v>611.9555254356998</v>
+        <v>284.1129120906211</v>
       </c>
       <c r="P11" t="n">
-        <v>162.4362424665933</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q11" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R11" t="n">
-        <v>22.09618337197585</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.6393281028688</v>
+        <v>137.6393281028687</v>
       </c>
       <c r="K12" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L12" t="n">
-        <v>179.4807597836982</v>
+        <v>550.3211050871573</v>
       </c>
       <c r="M12" t="n">
-        <v>228.9979732002435</v>
+        <v>522.9150063702275</v>
       </c>
       <c r="N12" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O12" t="n">
-        <v>552.1975516511576</v>
+        <v>205.9029418176524</v>
       </c>
       <c r="P12" t="n">
-        <v>464.1896824319257</v>
+        <v>145.7269137919885</v>
       </c>
       <c r="Q12" t="n">
         <v>257.0684396544374</v>
@@ -35574,16 +35574,16 @@
         <v>276.4780124472132</v>
       </c>
       <c r="M13" t="n">
-        <v>298.3962544128884</v>
+        <v>298.3962544128883</v>
       </c>
       <c r="N13" t="n">
         <v>298.3674969525467</v>
       </c>
       <c r="O13" t="n">
-        <v>264.4752989559363</v>
+        <v>264.4752989559362</v>
       </c>
       <c r="P13" t="n">
-        <v>212.1177384589225</v>
+        <v>212.1177384589224</v>
       </c>
       <c r="Q13" t="n">
         <v>82.98475197026613</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.30384561479602</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K14" t="n">
-        <v>452.2876065290217</v>
+        <v>128.1421939578568</v>
       </c>
       <c r="L14" t="n">
-        <v>196.246229639824</v>
+        <v>196.2462296398239</v>
       </c>
       <c r="M14" t="n">
-        <v>250.3510738262102</v>
+        <v>250.3510738262101</v>
       </c>
       <c r="N14" t="n">
-        <v>259.0624284385794</v>
+        <v>384.4299305697569</v>
       </c>
       <c r="O14" t="n">
-        <v>604.3704135397612</v>
+        <v>611.9555254356997</v>
       </c>
       <c r="P14" t="n">
-        <v>484.2349506380759</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q14" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.0961833719758</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.6393281028688</v>
+        <v>137.6393281028687</v>
       </c>
       <c r="K15" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L15" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M15" t="n">
-        <v>228.9979732002435</v>
+        <v>355.6131240073577</v>
       </c>
       <c r="N15" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O15" t="n">
-        <v>332.5180926247658</v>
+        <v>205.9029418176524</v>
       </c>
       <c r="P15" t="n">
         <v>464.1896824319257</v>
@@ -35811,16 +35811,16 @@
         <v>276.4780124472132</v>
       </c>
       <c r="M16" t="n">
-        <v>298.3962544128884</v>
+        <v>298.3962544128883</v>
       </c>
       <c r="N16" t="n">
         <v>298.3674969525467</v>
       </c>
       <c r="O16" t="n">
-        <v>264.4752989559363</v>
+        <v>264.4752989559362</v>
       </c>
       <c r="P16" t="n">
-        <v>212.1177384589225</v>
+        <v>212.1177384589224</v>
       </c>
       <c r="Q16" t="n">
         <v>82.98475197026613</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.30384561479602</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K17" t="n">
-        <v>407.8414613453782</v>
+        <v>275.6058794610102</v>
       </c>
       <c r="L17" t="n">
-        <v>613.9074441902744</v>
+        <v>196.2462296398239</v>
       </c>
       <c r="M17" t="n">
-        <v>250.3510738262102</v>
+        <v>250.3510738262101</v>
       </c>
       <c r="N17" t="n">
-        <v>259.0624284385794</v>
+        <v>259.0624284385793</v>
       </c>
       <c r="O17" t="n">
-        <v>231.1553441729544</v>
+        <v>611.9555254356997</v>
       </c>
       <c r="P17" t="n">
-        <v>484.2349506380759</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q17" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.6393281028688</v>
+        <v>137.6393281028687</v>
       </c>
       <c r="K18" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L18" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M18" t="n">
-        <v>228.9979732002435</v>
+        <v>280.2135733705654</v>
       </c>
       <c r="N18" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O18" t="n">
-        <v>332.5180926247658</v>
+        <v>599.7652610943819</v>
       </c>
       <c r="P18" t="n">
-        <v>464.1896824319257</v>
+        <v>145.7269137919885</v>
       </c>
       <c r="Q18" t="n">
         <v>257.0684396544374</v>
@@ -36045,22 +36045,22 @@
         <v>120.4005954360364</v>
       </c>
       <c r="L19" t="n">
-        <v>210.1586173637143</v>
+        <v>210.1586173637142</v>
       </c>
       <c r="M19" t="n">
-        <v>232.0768593293894</v>
+        <v>232.0768593293893</v>
       </c>
       <c r="N19" t="n">
         <v>232.0481018690477</v>
       </c>
       <c r="O19" t="n">
-        <v>198.1559038724373</v>
+        <v>198.1559038724372</v>
       </c>
       <c r="P19" t="n">
-        <v>145.7983433754235</v>
+        <v>145.7983433754234</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.66535688676716</v>
+        <v>16.66535688676713</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>220.4004607868698</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K20" t="n">
-        <v>240.9079941482517</v>
+        <v>452.2876065290216</v>
       </c>
       <c r="L20" t="n">
-        <v>196.246229639824</v>
+        <v>196.2462296398239</v>
       </c>
       <c r="M20" t="n">
-        <v>250.3510738262102</v>
+        <v>250.3510738262101</v>
       </c>
       <c r="N20" t="n">
-        <v>652.4643116421067</v>
+        <v>259.0624284385793</v>
       </c>
       <c r="O20" t="n">
-        <v>231.1553441729544</v>
+        <v>413.1776149957124</v>
       </c>
       <c r="P20" t="n">
-        <v>484.2349506380759</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R20" t="n">
-        <v>22.09618337197585</v>
+        <v>22.0961833719758</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.6393281028688</v>
+        <v>137.6393281028687</v>
       </c>
       <c r="K21" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L21" t="n">
-        <v>550.3211050871573</v>
+        <v>179.4807597836981</v>
       </c>
       <c r="M21" t="n">
-        <v>355.6131240073568</v>
+        <v>652.4643116421067</v>
       </c>
       <c r="N21" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O21" t="n">
-        <v>205.9029418176525</v>
+        <v>279.8920994863624</v>
       </c>
       <c r="P21" t="n">
         <v>464.1896824319257</v>
@@ -36282,22 +36282,22 @@
         <v>120.4005954360364</v>
       </c>
       <c r="L22" t="n">
-        <v>210.1586173637143</v>
+        <v>210.1586173637142</v>
       </c>
       <c r="M22" t="n">
-        <v>232.0768593293894</v>
+        <v>232.0768593293893</v>
       </c>
       <c r="N22" t="n">
         <v>232.0481018690477</v>
       </c>
       <c r="O22" t="n">
-        <v>198.1559038724373</v>
+        <v>198.1559038724372</v>
       </c>
       <c r="P22" t="n">
-        <v>145.7983433754235</v>
+        <v>145.7983433754234</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.66535688676716</v>
+        <v>16.66535688676713</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.5213058547977</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K23" t="n">
-        <v>452.2876065290217</v>
+        <v>309.4564801421205</v>
       </c>
       <c r="L23" t="n">
-        <v>196.246229639824</v>
+        <v>196.2462296398239</v>
       </c>
       <c r="M23" t="n">
-        <v>250.3510738262102</v>
+        <v>671.1032265437856</v>
       </c>
       <c r="N23" t="n">
-        <v>259.0624284385794</v>
+        <v>259.0624284385793</v>
       </c>
       <c r="O23" t="n">
-        <v>611.9555254356998</v>
+        <v>231.1553441729543</v>
       </c>
       <c r="P23" t="n">
-        <v>484.2349506380759</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q23" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.6393281028688</v>
+        <v>137.6393281028687</v>
       </c>
       <c r="K24" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L24" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M24" t="n">
-        <v>355.6131240073565</v>
+        <v>228.9979732002434</v>
       </c>
       <c r="N24" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O24" t="n">
-        <v>205.9029418176525</v>
+        <v>332.518092624766</v>
       </c>
       <c r="P24" t="n">
         <v>464.1896824319257</v>
@@ -36519,22 +36519,22 @@
         <v>120.4005954360364</v>
       </c>
       <c r="L25" t="n">
-        <v>210.1586173637143</v>
+        <v>210.1586173637142</v>
       </c>
       <c r="M25" t="n">
-        <v>232.0768593293894</v>
+        <v>232.0768593293893</v>
       </c>
       <c r="N25" t="n">
         <v>232.0481018690477</v>
       </c>
       <c r="O25" t="n">
-        <v>198.1559038724373</v>
+        <v>198.1559038724372</v>
       </c>
       <c r="P25" t="n">
-        <v>145.7983433754235</v>
+        <v>145.7983433754234</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.66535688676716</v>
+        <v>16.66535688676713</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.4004607868698</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K26" t="n">
-        <v>452.2876065290217</v>
+        <v>452.2876065290216</v>
       </c>
       <c r="L26" t="n">
-        <v>613.9074441902744</v>
+        <v>613.9074441902743</v>
       </c>
       <c r="M26" t="n">
-        <v>250.3510738262102</v>
+        <v>264.9039379351266</v>
       </c>
       <c r="N26" t="n">
-        <v>688.8660335875021</v>
+        <v>696.4093528505634</v>
       </c>
       <c r="O26" t="n">
-        <v>611.9555254356998</v>
+        <v>611.9555254356997</v>
       </c>
       <c r="P26" t="n">
-        <v>484.2349506380759</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q26" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R26" t="n">
-        <v>22.09618337197585</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.6393281028688</v>
+        <v>11.54829276245988</v>
       </c>
       <c r="K27" t="n">
-        <v>363.1473761275448</v>
+        <v>98.68213911496613</v>
       </c>
       <c r="L27" t="n">
-        <v>550.3211050871573</v>
+        <v>179.4807597836981</v>
       </c>
       <c r="M27" t="n">
-        <v>228.9979732002435</v>
+        <v>694.7030369502434</v>
       </c>
       <c r="N27" t="n">
-        <v>376.2282057368146</v>
+        <v>278.0574403665329</v>
       </c>
       <c r="O27" t="n">
-        <v>205.9029418176525</v>
+        <v>599.7652610943819</v>
       </c>
       <c r="P27" t="n">
         <v>464.1896824319257</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.77748156794588</v>
+        <v>73.77748156794584</v>
       </c>
       <c r="K28" t="n">
         <v>200.7183785106436</v>
       </c>
       <c r="L28" t="n">
-        <v>290.4764004383215</v>
+        <v>290.4764004383214</v>
       </c>
       <c r="M28" t="n">
-        <v>312.3946424039966</v>
+        <v>312.3946424039965</v>
       </c>
       <c r="N28" t="n">
-        <v>312.365884943655</v>
+        <v>312.3658849436549</v>
       </c>
       <c r="O28" t="n">
         <v>278.4736869470445</v>
       </c>
       <c r="P28" t="n">
-        <v>226.1161264500307</v>
+        <v>226.1161264500306</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.98313996137438</v>
+        <v>96.98313996137433</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.30384561479602</v>
+        <v>51.30384561479596</v>
       </c>
       <c r="K29" t="n">
-        <v>452.2876065290217</v>
+        <v>452.2876065290216</v>
       </c>
       <c r="L29" t="n">
-        <v>613.9074441902744</v>
+        <v>613.9074441902743</v>
       </c>
       <c r="M29" t="n">
-        <v>411.9043697352224</v>
+        <v>699.8646073190425</v>
       </c>
       <c r="N29" t="n">
-        <v>696.4093528505636</v>
+        <v>696.4093528505634</v>
       </c>
       <c r="O29" t="n">
-        <v>611.9555254356998</v>
+        <v>611.9555254356997</v>
       </c>
       <c r="P29" t="n">
-        <v>484.2349506380759</v>
+        <v>430.6858870861373</v>
       </c>
       <c r="Q29" t="n">
-        <v>285.6385039323763</v>
+        <v>73.3235132724715</v>
       </c>
       <c r="R29" t="n">
-        <v>22.09618337197585</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.6393281028688</v>
+        <v>137.6393281028687</v>
       </c>
       <c r="K30" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L30" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M30" t="n">
-        <v>228.9979732002435</v>
+        <v>404.8108060395905</v>
       </c>
       <c r="N30" t="n">
-        <v>249.6130549297013</v>
+        <v>728.9554292732547</v>
       </c>
       <c r="O30" t="n">
-        <v>332.5180926247658</v>
+        <v>205.9029418176524</v>
       </c>
       <c r="P30" t="n">
-        <v>464.1896824319257</v>
+        <v>145.7269137919885</v>
       </c>
       <c r="Q30" t="n">
-        <v>257.0684396544374</v>
+        <v>46.99115191858829</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.77748156794588</v>
+        <v>73.77748156794587</v>
       </c>
       <c r="K31" t="n">
         <v>200.7183785106436</v>
       </c>
       <c r="L31" t="n">
-        <v>290.4764004383215</v>
+        <v>290.4764004383214</v>
       </c>
       <c r="M31" t="n">
         <v>312.3946424039966</v>
       </c>
       <c r="N31" t="n">
-        <v>312.365884943655</v>
+        <v>312.3658849436549</v>
       </c>
       <c r="O31" t="n">
         <v>278.4736869470445</v>
@@ -37008,7 +37008,7 @@
         <v>226.1161264500307</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.98313996137438</v>
+        <v>96.98313996137436</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.4004607868698</v>
+        <v>51.30384561479596</v>
       </c>
       <c r="K32" t="n">
-        <v>452.2876065290217</v>
+        <v>398.7385429770841</v>
       </c>
       <c r="L32" t="n">
-        <v>196.246229639824</v>
+        <v>613.9074441902743</v>
       </c>
       <c r="M32" t="n">
-        <v>699.8646073190428</v>
+        <v>699.8646073190425</v>
       </c>
       <c r="N32" t="n">
-        <v>696.4093528505636</v>
+        <v>696.4093528505634</v>
       </c>
       <c r="O32" t="n">
-        <v>572.559887230257</v>
+        <v>611.9555254356997</v>
       </c>
       <c r="P32" t="n">
-        <v>484.2349506380759</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.6385039323763</v>
+        <v>73.3235132724715</v>
       </c>
       <c r="R32" t="n">
-        <v>22.09618337197585</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.6393281028688</v>
+        <v>137.6393281028687</v>
       </c>
       <c r="K33" t="n">
-        <v>363.1473761275448</v>
+        <v>98.68213911496613</v>
       </c>
       <c r="L33" t="n">
-        <v>516.056650190655</v>
+        <v>550.3211050871573</v>
       </c>
       <c r="M33" t="n">
-        <v>228.9979732002435</v>
+        <v>228.9979732002434</v>
       </c>
       <c r="N33" t="n">
-        <v>728.9554292732548</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O33" t="n">
-        <v>205.9029418176525</v>
+        <v>596.9833296373454</v>
       </c>
       <c r="P33" t="n">
-        <v>145.7269137919886</v>
+        <v>464.1896824319257</v>
       </c>
       <c r="Q33" t="n">
         <v>257.0684396544374</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.77748156794587</v>
+        <v>73.77748156794586</v>
       </c>
       <c r="K34" t="n">
         <v>200.7183785106436</v>
       </c>
       <c r="L34" t="n">
-        <v>290.4764004383215</v>
+        <v>290.4764004383214</v>
       </c>
       <c r="M34" t="n">
         <v>312.3946424039966</v>
@@ -37245,7 +37245,7 @@
         <v>226.1161264500307</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.98313996137436</v>
+        <v>96.98313996137435</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>220.4004607868698</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K35" t="n">
-        <v>452.2876065290217</v>
+        <v>128.1421939578568</v>
       </c>
       <c r="L35" t="n">
-        <v>613.9074441902744</v>
+        <v>613.9074441902743</v>
       </c>
       <c r="M35" t="n">
-        <v>250.3510738262102</v>
+        <v>699.8646073190425</v>
       </c>
       <c r="N35" t="n">
-        <v>688.8660335875016</v>
+        <v>696.4093528505634</v>
       </c>
       <c r="O35" t="n">
-        <v>611.9555254356998</v>
+        <v>611.9555254356997</v>
       </c>
       <c r="P35" t="n">
-        <v>484.2349506380759</v>
+        <v>373.4196938253235</v>
       </c>
       <c r="Q35" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R35" t="n">
-        <v>22.09618337197585</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.6393281028688</v>
+        <v>11.54829276245988</v>
       </c>
       <c r="K36" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L36" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M36" t="n">
-        <v>228.9979732002435</v>
+        <v>694.7030369502434</v>
       </c>
       <c r="N36" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O36" t="n">
-        <v>332.5180926247658</v>
+        <v>521.444120590962</v>
       </c>
       <c r="P36" t="n">
-        <v>464.1896824319257</v>
+        <v>145.7269137919885</v>
       </c>
       <c r="Q36" t="n">
-        <v>257.0684396544374</v>
+        <v>46.99115191858829</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.77748156794587</v>
+        <v>73.77748156794586</v>
       </c>
       <c r="K37" t="n">
         <v>200.7183785106436</v>
@@ -37479,10 +37479,10 @@
         <v>278.4736869470445</v>
       </c>
       <c r="P37" t="n">
-        <v>226.1161264500307</v>
+        <v>226.1161264500304</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.98313996137436</v>
+        <v>96.98313996137435</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>613.9074441902744</v>
       </c>
       <c r="M38" t="n">
-        <v>250.3510738262102</v>
+        <v>264.9039379351245</v>
       </c>
       <c r="N38" t="n">
         <v>696.4093528505636</v>
@@ -37558,13 +37558,13 @@
         <v>611.9555254356998</v>
       </c>
       <c r="P38" t="n">
-        <v>476.6916313750152</v>
+        <v>484.2349506380759</v>
       </c>
       <c r="Q38" t="n">
         <v>285.6385039323763</v>
       </c>
       <c r="R38" t="n">
-        <v>22.09618337197585</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.6393281028688</v>
+        <v>11.54829276245994</v>
       </c>
       <c r="K39" t="n">
-        <v>363.1473761275448</v>
+        <v>360.2257862609163</v>
       </c>
       <c r="L39" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M39" t="n">
-        <v>228.9979732002435</v>
+        <v>694.7030369502434</v>
       </c>
       <c r="N39" t="n">
         <v>249.6130549297013</v>
       </c>
       <c r="O39" t="n">
-        <v>332.5180926247663</v>
+        <v>205.9029418176525</v>
       </c>
       <c r="P39" t="n">
         <v>464.1896824319257</v>
       </c>
       <c r="Q39" t="n">
-        <v>257.0684396544374</v>
+        <v>46.99115191858834</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>73.77748156794587</v>
       </c>
       <c r="K40" t="n">
-        <v>200.7183785106435</v>
+        <v>200.7183785106436</v>
       </c>
       <c r="L40" t="n">
         <v>290.4764004383215</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>220.4004607868698</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K41" t="n">
-        <v>452.2876065290217</v>
+        <v>452.2876065290216</v>
       </c>
       <c r="L41" t="n">
-        <v>613.9074441902744</v>
+        <v>613.9074441902743</v>
       </c>
       <c r="M41" t="n">
-        <v>250.3510738262102</v>
+        <v>645.7041191978715</v>
       </c>
       <c r="N41" t="n">
-        <v>696.4093528505636</v>
+        <v>696.4093528505634</v>
       </c>
       <c r="O41" t="n">
-        <v>611.9555254356998</v>
+        <v>231.1553441729543</v>
       </c>
       <c r="P41" t="n">
-        <v>484.2349506380759</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q41" t="n">
-        <v>285.6385039323763</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R41" t="n">
-        <v>14.55286410891491</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.6393281028688</v>
+        <v>11.54829276245988</v>
       </c>
       <c r="K42" t="n">
-        <v>363.1473761275448</v>
+        <v>284.8262356241248</v>
       </c>
       <c r="L42" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M42" t="n">
-        <v>355.6131240073572</v>
+        <v>694.7030369502434</v>
       </c>
       <c r="N42" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O42" t="n">
-        <v>205.9029418176525</v>
+        <v>599.7652610943819</v>
       </c>
       <c r="P42" t="n">
-        <v>464.1896824319257</v>
+        <v>145.7269137919885</v>
       </c>
       <c r="Q42" t="n">
-        <v>257.0684396544374</v>
+        <v>46.99115191858829</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.7774815679458</v>
+        <v>73.77748156794584</v>
       </c>
       <c r="K43" t="n">
         <v>200.7183785106436</v>
       </c>
       <c r="L43" t="n">
-        <v>290.4764004383215</v>
+        <v>290.4764004383214</v>
       </c>
       <c r="M43" t="n">
-        <v>312.3946424039966</v>
+        <v>312.3946424039967</v>
       </c>
       <c r="N43" t="n">
         <v>312.3658849436549</v>
@@ -37953,10 +37953,10 @@
         <v>278.4736869470445</v>
       </c>
       <c r="P43" t="n">
-        <v>226.1161264500307</v>
+        <v>226.1161264500306</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.98313996137436</v>
+        <v>96.98313996137433</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.30384561479602</v>
+        <v>220.4004607868697</v>
       </c>
       <c r="K44" t="n">
-        <v>452.2876065290217</v>
+        <v>452.2876065290216</v>
       </c>
       <c r="L44" t="n">
-        <v>613.9074441902744</v>
+        <v>613.9074441902743</v>
       </c>
       <c r="M44" t="n">
-        <v>699.8646073190428</v>
+        <v>264.9039379351257</v>
       </c>
       <c r="N44" t="n">
-        <v>696.4093528505636</v>
+        <v>696.4093528505634</v>
       </c>
       <c r="O44" t="n">
-        <v>611.9555254356998</v>
+        <v>611.9555254356997</v>
       </c>
       <c r="P44" t="n">
-        <v>408.589703714161</v>
+        <v>484.2349506380758</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.32351327247162</v>
+        <v>285.6385039323762</v>
       </c>
       <c r="R44" t="n">
-        <v>22.09618337197585</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.6393281028688</v>
+        <v>11.54829276245988</v>
       </c>
       <c r="K45" t="n">
-        <v>363.1473761275448</v>
+        <v>363.1473761275447</v>
       </c>
       <c r="L45" t="n">
         <v>550.3211050871573</v>
       </c>
       <c r="M45" t="n">
-        <v>228.9979732002435</v>
+        <v>297.9191278068864</v>
       </c>
       <c r="N45" t="n">
-        <v>249.6130549297013</v>
+        <v>249.6130549297012</v>
       </c>
       <c r="O45" t="n">
-        <v>332.5180926247663</v>
+        <v>599.7652610943819</v>
       </c>
       <c r="P45" t="n">
         <v>464.1896824319257</v>
       </c>
       <c r="Q45" t="n">
-        <v>257.0684396544374</v>
+        <v>46.99115191858829</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>200.7183785106436</v>
       </c>
       <c r="L46" t="n">
-        <v>290.4764004383215</v>
+        <v>290.4764004383214</v>
       </c>
       <c r="M46" t="n">
         <v>312.3946424039966</v>
@@ -38187,7 +38187,7 @@
         <v>312.3658849436549</v>
       </c>
       <c r="O46" t="n">
-        <v>278.4736869470447</v>
+        <v>278.4736869470442</v>
       </c>
       <c r="P46" t="n">
         <v>226.1161264500307</v>
